--- a/Detail-Planung.xlsx
+++ b/Detail-Planung.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D3CA97-9DB5-499F-A2FB-57A14915937C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplan" sheetId="11" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <definedName name="task_progress" localSheetId="0">Projektplan!$C1</definedName>
     <definedName name="task_start" localSheetId="0">Projektplan!$D1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
   <si>
     <t xml:space="preserve">Löschen Sie diese Zeile nicht. Diese Zeile ist ausgeblendet, um eine Formel zu schützen, die zum Hervorheben des aktuellen Tags im Projektzeitplan verwendet wird. </t>
   </si>
@@ -173,16 +172,16 @@
     <t>Entwicklungsumgebung Einrichten</t>
   </si>
   <si>
-    <t>Fertigstellung Literaturprotokoll</t>
+    <t xml:space="preserve">Arbeit Expose </t>
   </si>
   <si>
-    <t xml:space="preserve">Arbeit Expose </t>
+    <t>Fertigstellung Literaturanalyse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="11">
     <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
@@ -1497,6 +1496,30 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="173" fontId="33" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="33" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="33" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="24" fillId="39" borderId="23" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="24" fillId="39" borderId="24" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="32" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="32" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="174" fontId="32" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1504,30 +1527,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="174" fontId="32" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="33" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="33" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="33" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="24" fillId="39" borderId="23" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="24" fillId="39" borderId="24" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="32" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="32" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -1556,11 +1555,11 @@
     <cellStyle name="Akzent4" xfId="42" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Akzent5" xfId="46" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Akzent6" xfId="50" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Aufgabe" xfId="12" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Aufgabe" xfId="12"/>
     <cellStyle name="Ausgabe" xfId="22" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Berechnung" xfId="23" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Besuchter Hyperlink" xfId="13" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Datum" xfId="10" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Datum" xfId="10"/>
     <cellStyle name="Dezimal [0]" xfId="14" builtinId="6" customBuiltin="1"/>
     <cellStyle name="Eingabe" xfId="21" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Ergebnis" xfId="29" builtinId="25" customBuiltin="1"/>
@@ -1568,10 +1567,10 @@
     <cellStyle name="Gut" xfId="18" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Komma" xfId="4" builtinId="3" customBuiltin="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Name" xfId="11" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Name" xfId="11"/>
     <cellStyle name="Neutral" xfId="20" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Notiz" xfId="27" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Projektanfang" xfId="9" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Projektanfang" xfId="9"/>
     <cellStyle name="Prozent" xfId="2" builtinId="5" customBuiltin="1"/>
     <cellStyle name="Schlecht" xfId="19" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -1584,7 +1583,7 @@
     <cellStyle name="Währung" xfId="15" builtinId="4" customBuiltin="1"/>
     <cellStyle name="Währung [0]" xfId="16" builtinId="7" customBuiltin="1"/>
     <cellStyle name="Warnender Text" xfId="26" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="zAusgeblText" xfId="3" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="zAusgeblText" xfId="3"/>
     <cellStyle name="Zelle überprüfen" xfId="25" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="15">
@@ -1743,7 +1742,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Aufgabenliste" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Aufgabenliste" pivot="0" count="9">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -2108,31 +2107,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:HE32"/>
+  <dimension ref="A1:HE31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="40" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="HE29" sqref="A3:HE29"/>
+      <selection pane="bottomLeft" activeCell="HE28" sqref="A3:HE28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" style="44" customWidth="1"/>
-    <col min="2" max="2" width="48.44140625" style="42" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="42" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="7.33203125" style="42" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="2.6640625" style="42" customWidth="1"/>
-    <col min="10" max="10" width="0.44140625" style="42" customWidth="1"/>
-    <col min="11" max="213" width="1.109375" style="42" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="44" customWidth="1"/>
+    <col min="2" max="2" width="48.42578125" style="42" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="42" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="7.28515625" style="42" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" style="42" customWidth="1"/>
+    <col min="10" max="10" width="0.42578125" style="42" customWidth="1"/>
+    <col min="11" max="213" width="1.140625" style="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:213" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:213" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38"/>
       <c r="B1" s="45"/>
       <c r="C1" s="39"/>
@@ -2144,607 +2143,607 @@
       <c r="J1" s="39"/>
       <c r="K1" s="43"/>
     </row>
-    <row r="2" spans="1:213" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:213" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="45"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:213" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:213" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="47"/>
       <c r="C3" s="48"/>
-      <c r="D3" s="104">
+      <c r="D3" s="101">
         <v>45658</v>
       </c>
-      <c r="E3" s="105"/>
-      <c r="K3" s="101">
+      <c r="E3" s="102"/>
+      <c r="K3" s="98">
         <f>_xlfn.ISOWEEKNUM(K4)</f>
         <v>8</v>
       </c>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
-      <c r="O3" s="102"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="101">
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="98">
         <f t="shared" ref="R3" si="0">_xlfn.ISOWEEKNUM(R4)</f>
         <v>9</v>
       </c>
-      <c r="S3" s="102"/>
-      <c r="T3" s="102"/>
-      <c r="U3" s="102"/>
-      <c r="V3" s="102"/>
-      <c r="W3" s="102"/>
-      <c r="X3" s="103"/>
-      <c r="Y3" s="101">
+      <c r="S3" s="99"/>
+      <c r="T3" s="99"/>
+      <c r="U3" s="99"/>
+      <c r="V3" s="99"/>
+      <c r="W3" s="99"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="98">
         <f t="shared" ref="Y3" si="1">_xlfn.ISOWEEKNUM(Y4)</f>
         <v>10</v>
       </c>
-      <c r="Z3" s="102"/>
-      <c r="AA3" s="102"/>
-      <c r="AB3" s="102"/>
-      <c r="AC3" s="102"/>
-      <c r="AD3" s="102"/>
-      <c r="AE3" s="103"/>
-      <c r="AF3" s="101">
+      <c r="Z3" s="99"/>
+      <c r="AA3" s="99"/>
+      <c r="AB3" s="99"/>
+      <c r="AC3" s="99"/>
+      <c r="AD3" s="99"/>
+      <c r="AE3" s="100"/>
+      <c r="AF3" s="98">
         <f t="shared" ref="AF3" si="2">_xlfn.ISOWEEKNUM(AF4)</f>
         <v>11</v>
       </c>
-      <c r="AG3" s="102"/>
-      <c r="AH3" s="102"/>
-      <c r="AI3" s="102"/>
-      <c r="AJ3" s="102"/>
-      <c r="AK3" s="102"/>
-      <c r="AL3" s="103"/>
-      <c r="AM3" s="101">
+      <c r="AG3" s="99"/>
+      <c r="AH3" s="99"/>
+      <c r="AI3" s="99"/>
+      <c r="AJ3" s="99"/>
+      <c r="AK3" s="99"/>
+      <c r="AL3" s="100"/>
+      <c r="AM3" s="98">
         <f t="shared" ref="AM3" si="3">_xlfn.ISOWEEKNUM(AM4)</f>
         <v>12</v>
       </c>
-      <c r="AN3" s="102"/>
-      <c r="AO3" s="102"/>
-      <c r="AP3" s="102"/>
-      <c r="AQ3" s="102"/>
-      <c r="AR3" s="102"/>
-      <c r="AS3" s="103"/>
-      <c r="AT3" s="101">
+      <c r="AN3" s="99"/>
+      <c r="AO3" s="99"/>
+      <c r="AP3" s="99"/>
+      <c r="AQ3" s="99"/>
+      <c r="AR3" s="99"/>
+      <c r="AS3" s="100"/>
+      <c r="AT3" s="98">
         <f t="shared" ref="AT3" si="4">_xlfn.ISOWEEKNUM(AT4)</f>
         <v>13</v>
       </c>
-      <c r="AU3" s="102"/>
-      <c r="AV3" s="102"/>
-      <c r="AW3" s="102"/>
-      <c r="AX3" s="102"/>
-      <c r="AY3" s="102"/>
-      <c r="AZ3" s="103"/>
-      <c r="BA3" s="101">
+      <c r="AU3" s="99"/>
+      <c r="AV3" s="99"/>
+      <c r="AW3" s="99"/>
+      <c r="AX3" s="99"/>
+      <c r="AY3" s="99"/>
+      <c r="AZ3" s="100"/>
+      <c r="BA3" s="98">
         <f t="shared" ref="BA3" si="5">_xlfn.ISOWEEKNUM(BA4)</f>
         <v>14</v>
       </c>
-      <c r="BB3" s="102"/>
-      <c r="BC3" s="102"/>
-      <c r="BD3" s="102"/>
-      <c r="BE3" s="102"/>
-      <c r="BF3" s="102"/>
-      <c r="BG3" s="103"/>
-      <c r="BH3" s="101">
+      <c r="BB3" s="99"/>
+      <c r="BC3" s="99"/>
+      <c r="BD3" s="99"/>
+      <c r="BE3" s="99"/>
+      <c r="BF3" s="99"/>
+      <c r="BG3" s="100"/>
+      <c r="BH3" s="98">
         <f t="shared" ref="BH3" si="6">_xlfn.ISOWEEKNUM(BH4)</f>
         <v>15</v>
       </c>
-      <c r="BI3" s="102"/>
-      <c r="BJ3" s="102"/>
-      <c r="BK3" s="102"/>
-      <c r="BL3" s="102"/>
-      <c r="BM3" s="102"/>
-      <c r="BN3" s="103"/>
-      <c r="BO3" s="101">
+      <c r="BI3" s="99"/>
+      <c r="BJ3" s="99"/>
+      <c r="BK3" s="99"/>
+      <c r="BL3" s="99"/>
+      <c r="BM3" s="99"/>
+      <c r="BN3" s="100"/>
+      <c r="BO3" s="98">
         <f t="shared" ref="BO3" si="7">_xlfn.ISOWEEKNUM(BO4)</f>
         <v>16</v>
       </c>
-      <c r="BP3" s="102"/>
-      <c r="BQ3" s="102"/>
-      <c r="BR3" s="102"/>
-      <c r="BS3" s="102"/>
-      <c r="BT3" s="102"/>
-      <c r="BU3" s="103"/>
-      <c r="BV3" s="101">
+      <c r="BP3" s="99"/>
+      <c r="BQ3" s="99"/>
+      <c r="BR3" s="99"/>
+      <c r="BS3" s="99"/>
+      <c r="BT3" s="99"/>
+      <c r="BU3" s="100"/>
+      <c r="BV3" s="98">
         <f t="shared" ref="BV3" si="8">_xlfn.ISOWEEKNUM(BV4)</f>
         <v>17</v>
       </c>
-      <c r="BW3" s="102"/>
-      <c r="BX3" s="102"/>
-      <c r="BY3" s="102"/>
-      <c r="BZ3" s="102"/>
-      <c r="CA3" s="102"/>
-      <c r="CB3" s="103"/>
-      <c r="CC3" s="101">
+      <c r="BW3" s="99"/>
+      <c r="BX3" s="99"/>
+      <c r="BY3" s="99"/>
+      <c r="BZ3" s="99"/>
+      <c r="CA3" s="99"/>
+      <c r="CB3" s="100"/>
+      <c r="CC3" s="98">
         <f t="shared" ref="CC3" si="9">_xlfn.ISOWEEKNUM(CC4)</f>
         <v>18</v>
       </c>
-      <c r="CD3" s="102"/>
-      <c r="CE3" s="102"/>
-      <c r="CF3" s="102"/>
-      <c r="CG3" s="102"/>
-      <c r="CH3" s="102"/>
-      <c r="CI3" s="103"/>
-      <c r="CJ3" s="101">
+      <c r="CD3" s="99"/>
+      <c r="CE3" s="99"/>
+      <c r="CF3" s="99"/>
+      <c r="CG3" s="99"/>
+      <c r="CH3" s="99"/>
+      <c r="CI3" s="100"/>
+      <c r="CJ3" s="98">
         <f t="shared" ref="CJ3" si="10">_xlfn.ISOWEEKNUM(CJ4)</f>
         <v>19</v>
       </c>
-      <c r="CK3" s="102"/>
-      <c r="CL3" s="102"/>
-      <c r="CM3" s="102"/>
-      <c r="CN3" s="102"/>
-      <c r="CO3" s="102"/>
-      <c r="CP3" s="103"/>
-      <c r="CQ3" s="101">
+      <c r="CK3" s="99"/>
+      <c r="CL3" s="99"/>
+      <c r="CM3" s="99"/>
+      <c r="CN3" s="99"/>
+      <c r="CO3" s="99"/>
+      <c r="CP3" s="100"/>
+      <c r="CQ3" s="98">
         <f t="shared" ref="CQ3" si="11">_xlfn.ISOWEEKNUM(CQ4)</f>
         <v>20</v>
       </c>
-      <c r="CR3" s="102"/>
-      <c r="CS3" s="102"/>
-      <c r="CT3" s="102"/>
-      <c r="CU3" s="102"/>
-      <c r="CV3" s="102"/>
-      <c r="CW3" s="103"/>
-      <c r="CX3" s="101">
+      <c r="CR3" s="99"/>
+      <c r="CS3" s="99"/>
+      <c r="CT3" s="99"/>
+      <c r="CU3" s="99"/>
+      <c r="CV3" s="99"/>
+      <c r="CW3" s="100"/>
+      <c r="CX3" s="98">
         <f t="shared" ref="CX3" si="12">_xlfn.ISOWEEKNUM(CX4)</f>
         <v>21</v>
       </c>
-      <c r="CY3" s="102"/>
-      <c r="CZ3" s="102"/>
-      <c r="DA3" s="102"/>
-      <c r="DB3" s="102"/>
-      <c r="DC3" s="102"/>
-      <c r="DD3" s="103"/>
-      <c r="DE3" s="101">
+      <c r="CY3" s="99"/>
+      <c r="CZ3" s="99"/>
+      <c r="DA3" s="99"/>
+      <c r="DB3" s="99"/>
+      <c r="DC3" s="99"/>
+      <c r="DD3" s="100"/>
+      <c r="DE3" s="98">
         <f t="shared" ref="DE3" si="13">_xlfn.ISOWEEKNUM(DE4)</f>
         <v>22</v>
       </c>
-      <c r="DF3" s="102"/>
-      <c r="DG3" s="102"/>
-      <c r="DH3" s="102"/>
-      <c r="DI3" s="102"/>
-      <c r="DJ3" s="102"/>
-      <c r="DK3" s="103"/>
-      <c r="DL3" s="101">
+      <c r="DF3" s="99"/>
+      <c r="DG3" s="99"/>
+      <c r="DH3" s="99"/>
+      <c r="DI3" s="99"/>
+      <c r="DJ3" s="99"/>
+      <c r="DK3" s="100"/>
+      <c r="DL3" s="98">
         <f t="shared" ref="DL3" si="14">_xlfn.ISOWEEKNUM(DL4)</f>
         <v>23</v>
       </c>
-      <c r="DM3" s="102"/>
-      <c r="DN3" s="102"/>
-      <c r="DO3" s="102"/>
-      <c r="DP3" s="102"/>
-      <c r="DQ3" s="102"/>
-      <c r="DR3" s="103"/>
-      <c r="DS3" s="101">
+      <c r="DM3" s="99"/>
+      <c r="DN3" s="99"/>
+      <c r="DO3" s="99"/>
+      <c r="DP3" s="99"/>
+      <c r="DQ3" s="99"/>
+      <c r="DR3" s="100"/>
+      <c r="DS3" s="98">
         <f t="shared" ref="DS3" si="15">_xlfn.ISOWEEKNUM(DS4)</f>
         <v>24</v>
       </c>
-      <c r="DT3" s="102"/>
-      <c r="DU3" s="102"/>
-      <c r="DV3" s="102"/>
-      <c r="DW3" s="102"/>
-      <c r="DX3" s="102"/>
-      <c r="DY3" s="103"/>
-      <c r="DZ3" s="101">
+      <c r="DT3" s="99"/>
+      <c r="DU3" s="99"/>
+      <c r="DV3" s="99"/>
+      <c r="DW3" s="99"/>
+      <c r="DX3" s="99"/>
+      <c r="DY3" s="100"/>
+      <c r="DZ3" s="98">
         <f t="shared" ref="DZ3:FI3" si="16">_xlfn.ISOWEEKNUM(DZ4)</f>
         <v>25</v>
       </c>
-      <c r="EA3" s="102"/>
-      <c r="EB3" s="102"/>
-      <c r="EC3" s="102"/>
-      <c r="ED3" s="102"/>
-      <c r="EE3" s="102"/>
-      <c r="EF3" s="103"/>
-      <c r="EG3" s="101">
+      <c r="EA3" s="99"/>
+      <c r="EB3" s="99"/>
+      <c r="EC3" s="99"/>
+      <c r="ED3" s="99"/>
+      <c r="EE3" s="99"/>
+      <c r="EF3" s="100"/>
+      <c r="EG3" s="98">
         <f t="shared" si="16"/>
         <v>26</v>
       </c>
-      <c r="EH3" s="102"/>
-      <c r="EI3" s="102"/>
-      <c r="EJ3" s="102"/>
-      <c r="EK3" s="102"/>
-      <c r="EL3" s="102"/>
-      <c r="EM3" s="103"/>
-      <c r="EN3" s="101">
+      <c r="EH3" s="99"/>
+      <c r="EI3" s="99"/>
+      <c r="EJ3" s="99"/>
+      <c r="EK3" s="99"/>
+      <c r="EL3" s="99"/>
+      <c r="EM3" s="100"/>
+      <c r="EN3" s="98">
         <f t="shared" si="16"/>
         <v>27</v>
       </c>
-      <c r="EO3" s="102"/>
-      <c r="EP3" s="102"/>
-      <c r="EQ3" s="102"/>
-      <c r="ER3" s="102"/>
-      <c r="ES3" s="102"/>
-      <c r="ET3" s="103"/>
-      <c r="EU3" s="101">
+      <c r="EO3" s="99"/>
+      <c r="EP3" s="99"/>
+      <c r="EQ3" s="99"/>
+      <c r="ER3" s="99"/>
+      <c r="ES3" s="99"/>
+      <c r="ET3" s="100"/>
+      <c r="EU3" s="98">
         <f t="shared" si="16"/>
         <v>28</v>
       </c>
-      <c r="EV3" s="102"/>
-      <c r="EW3" s="102"/>
-      <c r="EX3" s="102"/>
-      <c r="EY3" s="102"/>
-      <c r="EZ3" s="102"/>
-      <c r="FA3" s="103"/>
-      <c r="FB3" s="101">
+      <c r="EV3" s="99"/>
+      <c r="EW3" s="99"/>
+      <c r="EX3" s="99"/>
+      <c r="EY3" s="99"/>
+      <c r="EZ3" s="99"/>
+      <c r="FA3" s="100"/>
+      <c r="FB3" s="98">
         <f t="shared" si="16"/>
         <v>29</v>
       </c>
-      <c r="FC3" s="102"/>
-      <c r="FD3" s="102"/>
-      <c r="FE3" s="102"/>
-      <c r="FF3" s="102"/>
-      <c r="FG3" s="102"/>
-      <c r="FH3" s="103"/>
-      <c r="FI3" s="101">
+      <c r="FC3" s="99"/>
+      <c r="FD3" s="99"/>
+      <c r="FE3" s="99"/>
+      <c r="FF3" s="99"/>
+      <c r="FG3" s="99"/>
+      <c r="FH3" s="100"/>
+      <c r="FI3" s="98">
         <f t="shared" si="16"/>
         <v>30</v>
       </c>
-      <c r="FJ3" s="102"/>
-      <c r="FK3" s="102"/>
-      <c r="FL3" s="102"/>
-      <c r="FM3" s="102"/>
-      <c r="FN3" s="102"/>
-      <c r="FO3" s="103"/>
-      <c r="FP3" s="101">
+      <c r="FJ3" s="99"/>
+      <c r="FK3" s="99"/>
+      <c r="FL3" s="99"/>
+      <c r="FM3" s="99"/>
+      <c r="FN3" s="99"/>
+      <c r="FO3" s="100"/>
+      <c r="FP3" s="98">
         <f t="shared" ref="FP3:GY3" si="17">_xlfn.ISOWEEKNUM(FP4)</f>
         <v>31</v>
       </c>
-      <c r="FQ3" s="102"/>
-      <c r="FR3" s="102"/>
-      <c r="FS3" s="102"/>
-      <c r="FT3" s="102"/>
-      <c r="FU3" s="102"/>
-      <c r="FV3" s="103"/>
-      <c r="FW3" s="101">
+      <c r="FQ3" s="99"/>
+      <c r="FR3" s="99"/>
+      <c r="FS3" s="99"/>
+      <c r="FT3" s="99"/>
+      <c r="FU3" s="99"/>
+      <c r="FV3" s="100"/>
+      <c r="FW3" s="98">
         <f t="shared" si="17"/>
         <v>32</v>
       </c>
-      <c r="FX3" s="102"/>
-      <c r="FY3" s="102"/>
-      <c r="FZ3" s="102"/>
-      <c r="GA3" s="102"/>
-      <c r="GB3" s="102"/>
-      <c r="GC3" s="103"/>
-      <c r="GD3" s="101">
+      <c r="FX3" s="99"/>
+      <c r="FY3" s="99"/>
+      <c r="FZ3" s="99"/>
+      <c r="GA3" s="99"/>
+      <c r="GB3" s="99"/>
+      <c r="GC3" s="100"/>
+      <c r="GD3" s="98">
         <f t="shared" si="17"/>
         <v>33</v>
       </c>
-      <c r="GE3" s="102"/>
-      <c r="GF3" s="102"/>
-      <c r="GG3" s="102"/>
-      <c r="GH3" s="102"/>
-      <c r="GI3" s="102"/>
-      <c r="GJ3" s="103"/>
-      <c r="GK3" s="101">
+      <c r="GE3" s="99"/>
+      <c r="GF3" s="99"/>
+      <c r="GG3" s="99"/>
+      <c r="GH3" s="99"/>
+      <c r="GI3" s="99"/>
+      <c r="GJ3" s="100"/>
+      <c r="GK3" s="98">
         <f t="shared" si="17"/>
         <v>34</v>
       </c>
-      <c r="GL3" s="102"/>
-      <c r="GM3" s="102"/>
-      <c r="GN3" s="102"/>
-      <c r="GO3" s="102"/>
-      <c r="GP3" s="102"/>
-      <c r="GQ3" s="103"/>
-      <c r="GR3" s="101">
+      <c r="GL3" s="99"/>
+      <c r="GM3" s="99"/>
+      <c r="GN3" s="99"/>
+      <c r="GO3" s="99"/>
+      <c r="GP3" s="99"/>
+      <c r="GQ3" s="100"/>
+      <c r="GR3" s="98">
         <f t="shared" si="17"/>
         <v>35</v>
       </c>
-      <c r="GS3" s="102"/>
-      <c r="GT3" s="102"/>
-      <c r="GU3" s="102"/>
-      <c r="GV3" s="102"/>
-      <c r="GW3" s="102"/>
-      <c r="GX3" s="103"/>
-      <c r="GY3" s="101">
+      <c r="GS3" s="99"/>
+      <c r="GT3" s="99"/>
+      <c r="GU3" s="99"/>
+      <c r="GV3" s="99"/>
+      <c r="GW3" s="99"/>
+      <c r="GX3" s="100"/>
+      <c r="GY3" s="98">
         <f t="shared" si="17"/>
         <v>36</v>
       </c>
-      <c r="GZ3" s="102"/>
-      <c r="HA3" s="102"/>
-      <c r="HB3" s="102"/>
-      <c r="HC3" s="102"/>
-      <c r="HD3" s="102"/>
-      <c r="HE3" s="103"/>
+      <c r="GZ3" s="99"/>
+      <c r="HA3" s="99"/>
+      <c r="HB3" s="99"/>
+      <c r="HC3" s="99"/>
+      <c r="HD3" s="99"/>
+      <c r="HE3" s="100"/>
     </row>
-    <row r="4" spans="1:213" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:213" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38"/>
       <c r="C4" s="48"/>
       <c r="D4" s="49">
         <v>8</v>
       </c>
       <c r="E4" s="50"/>
-      <c r="K4" s="106">
+      <c r="K4" s="103">
         <f>K5</f>
         <v>45705</v>
       </c>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="108"/>
-      <c r="R4" s="98">
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="106">
         <f>R5</f>
         <v>45712</v>
       </c>
-      <c r="S4" s="99"/>
-      <c r="T4" s="99"/>
-      <c r="U4" s="99"/>
-      <c r="V4" s="99"/>
-      <c r="W4" s="99"/>
-      <c r="X4" s="100"/>
-      <c r="Y4" s="98">
+      <c r="S4" s="107"/>
+      <c r="T4" s="107"/>
+      <c r="U4" s="107"/>
+      <c r="V4" s="107"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="108"/>
+      <c r="Y4" s="106">
         <f>Y5</f>
         <v>45719</v>
       </c>
-      <c r="Z4" s="99"/>
-      <c r="AA4" s="99"/>
-      <c r="AB4" s="99"/>
-      <c r="AC4" s="99"/>
-      <c r="AD4" s="99"/>
-      <c r="AE4" s="100"/>
-      <c r="AF4" s="98">
+      <c r="Z4" s="107"/>
+      <c r="AA4" s="107"/>
+      <c r="AB4" s="107"/>
+      <c r="AC4" s="107"/>
+      <c r="AD4" s="107"/>
+      <c r="AE4" s="108"/>
+      <c r="AF4" s="106">
         <f>AF5</f>
         <v>45726</v>
       </c>
-      <c r="AG4" s="99"/>
-      <c r="AH4" s="99"/>
-      <c r="AI4" s="99"/>
-      <c r="AJ4" s="99"/>
-      <c r="AK4" s="99"/>
-      <c r="AL4" s="100"/>
-      <c r="AM4" s="98">
+      <c r="AG4" s="107"/>
+      <c r="AH4" s="107"/>
+      <c r="AI4" s="107"/>
+      <c r="AJ4" s="107"/>
+      <c r="AK4" s="107"/>
+      <c r="AL4" s="108"/>
+      <c r="AM4" s="106">
         <f>AM5</f>
         <v>45733</v>
       </c>
-      <c r="AN4" s="99"/>
-      <c r="AO4" s="99"/>
-      <c r="AP4" s="99"/>
-      <c r="AQ4" s="99"/>
-      <c r="AR4" s="99"/>
-      <c r="AS4" s="100"/>
-      <c r="AT4" s="98">
+      <c r="AN4" s="107"/>
+      <c r="AO4" s="107"/>
+      <c r="AP4" s="107"/>
+      <c r="AQ4" s="107"/>
+      <c r="AR4" s="107"/>
+      <c r="AS4" s="108"/>
+      <c r="AT4" s="106">
         <f>AT5</f>
         <v>45740</v>
       </c>
-      <c r="AU4" s="99"/>
-      <c r="AV4" s="99"/>
-      <c r="AW4" s="99"/>
-      <c r="AX4" s="99"/>
-      <c r="AY4" s="99"/>
-      <c r="AZ4" s="100"/>
-      <c r="BA4" s="98">
+      <c r="AU4" s="107"/>
+      <c r="AV4" s="107"/>
+      <c r="AW4" s="107"/>
+      <c r="AX4" s="107"/>
+      <c r="AY4" s="107"/>
+      <c r="AZ4" s="108"/>
+      <c r="BA4" s="106">
         <f>BA5</f>
         <v>45747</v>
       </c>
-      <c r="BB4" s="99"/>
-      <c r="BC4" s="99"/>
-      <c r="BD4" s="99"/>
-      <c r="BE4" s="99"/>
-      <c r="BF4" s="99"/>
-      <c r="BG4" s="100"/>
-      <c r="BH4" s="98">
+      <c r="BB4" s="107"/>
+      <c r="BC4" s="107"/>
+      <c r="BD4" s="107"/>
+      <c r="BE4" s="107"/>
+      <c r="BF4" s="107"/>
+      <c r="BG4" s="108"/>
+      <c r="BH4" s="106">
         <f>BH5</f>
         <v>45754</v>
       </c>
-      <c r="BI4" s="99"/>
-      <c r="BJ4" s="99"/>
-      <c r="BK4" s="99"/>
-      <c r="BL4" s="99"/>
-      <c r="BM4" s="99"/>
-      <c r="BN4" s="100"/>
-      <c r="BO4" s="98">
+      <c r="BI4" s="107"/>
+      <c r="BJ4" s="107"/>
+      <c r="BK4" s="107"/>
+      <c r="BL4" s="107"/>
+      <c r="BM4" s="107"/>
+      <c r="BN4" s="108"/>
+      <c r="BO4" s="106">
         <f>BO5</f>
         <v>45761</v>
       </c>
-      <c r="BP4" s="99"/>
-      <c r="BQ4" s="99"/>
-      <c r="BR4" s="99"/>
-      <c r="BS4" s="99"/>
-      <c r="BT4" s="99"/>
-      <c r="BU4" s="100"/>
-      <c r="BV4" s="98">
+      <c r="BP4" s="107"/>
+      <c r="BQ4" s="107"/>
+      <c r="BR4" s="107"/>
+      <c r="BS4" s="107"/>
+      <c r="BT4" s="107"/>
+      <c r="BU4" s="108"/>
+      <c r="BV4" s="106">
         <f t="shared" ref="BV4" si="18">BV5</f>
         <v>45768</v>
       </c>
-      <c r="BW4" s="99"/>
-      <c r="BX4" s="99"/>
-      <c r="BY4" s="99"/>
-      <c r="BZ4" s="99"/>
-      <c r="CA4" s="99"/>
-      <c r="CB4" s="100"/>
-      <c r="CC4" s="98">
+      <c r="BW4" s="107"/>
+      <c r="BX4" s="107"/>
+      <c r="BY4" s="107"/>
+      <c r="BZ4" s="107"/>
+      <c r="CA4" s="107"/>
+      <c r="CB4" s="108"/>
+      <c r="CC4" s="106">
         <f t="shared" ref="CC4" si="19">CC5</f>
         <v>45775</v>
       </c>
-      <c r="CD4" s="99"/>
-      <c r="CE4" s="99"/>
-      <c r="CF4" s="99"/>
-      <c r="CG4" s="99"/>
-      <c r="CH4" s="99"/>
-      <c r="CI4" s="100"/>
-      <c r="CJ4" s="98">
+      <c r="CD4" s="107"/>
+      <c r="CE4" s="107"/>
+      <c r="CF4" s="107"/>
+      <c r="CG4" s="107"/>
+      <c r="CH4" s="107"/>
+      <c r="CI4" s="108"/>
+      <c r="CJ4" s="106">
         <f t="shared" ref="CJ4" si="20">CJ5</f>
         <v>45782</v>
       </c>
-      <c r="CK4" s="99"/>
-      <c r="CL4" s="99"/>
-      <c r="CM4" s="99"/>
-      <c r="CN4" s="99"/>
-      <c r="CO4" s="99"/>
-      <c r="CP4" s="100"/>
-      <c r="CQ4" s="98">
+      <c r="CK4" s="107"/>
+      <c r="CL4" s="107"/>
+      <c r="CM4" s="107"/>
+      <c r="CN4" s="107"/>
+      <c r="CO4" s="107"/>
+      <c r="CP4" s="108"/>
+      <c r="CQ4" s="106">
         <f t="shared" ref="CQ4" si="21">CQ5</f>
         <v>45789</v>
       </c>
-      <c r="CR4" s="99"/>
-      <c r="CS4" s="99"/>
-      <c r="CT4" s="99"/>
-      <c r="CU4" s="99"/>
-      <c r="CV4" s="99"/>
-      <c r="CW4" s="100"/>
-      <c r="CX4" s="98">
+      <c r="CR4" s="107"/>
+      <c r="CS4" s="107"/>
+      <c r="CT4" s="107"/>
+      <c r="CU4" s="107"/>
+      <c r="CV4" s="107"/>
+      <c r="CW4" s="108"/>
+      <c r="CX4" s="106">
         <f t="shared" ref="CX4" si="22">CX5</f>
         <v>45796</v>
       </c>
-      <c r="CY4" s="99"/>
-      <c r="CZ4" s="99"/>
-      <c r="DA4" s="99"/>
-      <c r="DB4" s="99"/>
-      <c r="DC4" s="99"/>
-      <c r="DD4" s="100"/>
-      <c r="DE4" s="98">
+      <c r="CY4" s="107"/>
+      <c r="CZ4" s="107"/>
+      <c r="DA4" s="107"/>
+      <c r="DB4" s="107"/>
+      <c r="DC4" s="107"/>
+      <c r="DD4" s="108"/>
+      <c r="DE4" s="106">
         <f t="shared" ref="DE4" si="23">DE5</f>
         <v>45803</v>
       </c>
-      <c r="DF4" s="99"/>
-      <c r="DG4" s="99"/>
-      <c r="DH4" s="99"/>
-      <c r="DI4" s="99"/>
-      <c r="DJ4" s="99"/>
-      <c r="DK4" s="100"/>
-      <c r="DL4" s="98">
+      <c r="DF4" s="107"/>
+      <c r="DG4" s="107"/>
+      <c r="DH4" s="107"/>
+      <c r="DI4" s="107"/>
+      <c r="DJ4" s="107"/>
+      <c r="DK4" s="108"/>
+      <c r="DL4" s="106">
         <f t="shared" ref="DL4" si="24">DL5</f>
         <v>45810</v>
       </c>
-      <c r="DM4" s="99"/>
-      <c r="DN4" s="99"/>
-      <c r="DO4" s="99"/>
-      <c r="DP4" s="99"/>
-      <c r="DQ4" s="99"/>
-      <c r="DR4" s="100"/>
-      <c r="DS4" s="98">
+      <c r="DM4" s="107"/>
+      <c r="DN4" s="107"/>
+      <c r="DO4" s="107"/>
+      <c r="DP4" s="107"/>
+      <c r="DQ4" s="107"/>
+      <c r="DR4" s="108"/>
+      <c r="DS4" s="106">
         <f t="shared" ref="DS4" si="25">DS5</f>
         <v>45817</v>
       </c>
-      <c r="DT4" s="99"/>
-      <c r="DU4" s="99"/>
-      <c r="DV4" s="99"/>
-      <c r="DW4" s="99"/>
-      <c r="DX4" s="99"/>
-      <c r="DY4" s="100"/>
-      <c r="DZ4" s="98">
+      <c r="DT4" s="107"/>
+      <c r="DU4" s="107"/>
+      <c r="DV4" s="107"/>
+      <c r="DW4" s="107"/>
+      <c r="DX4" s="107"/>
+      <c r="DY4" s="108"/>
+      <c r="DZ4" s="106">
         <f t="shared" ref="DZ4:FI4" si="26">DZ5</f>
         <v>45824</v>
       </c>
-      <c r="EA4" s="99"/>
-      <c r="EB4" s="99"/>
-      <c r="EC4" s="99"/>
-      <c r="ED4" s="99"/>
-      <c r="EE4" s="99"/>
-      <c r="EF4" s="100"/>
-      <c r="EG4" s="98">
+      <c r="EA4" s="107"/>
+      <c r="EB4" s="107"/>
+      <c r="EC4" s="107"/>
+      <c r="ED4" s="107"/>
+      <c r="EE4" s="107"/>
+      <c r="EF4" s="108"/>
+      <c r="EG4" s="106">
         <f t="shared" si="26"/>
         <v>45831</v>
       </c>
-      <c r="EH4" s="99"/>
-      <c r="EI4" s="99"/>
-      <c r="EJ4" s="99"/>
-      <c r="EK4" s="99"/>
-      <c r="EL4" s="99"/>
-      <c r="EM4" s="100"/>
-      <c r="EN4" s="98">
+      <c r="EH4" s="107"/>
+      <c r="EI4" s="107"/>
+      <c r="EJ4" s="107"/>
+      <c r="EK4" s="107"/>
+      <c r="EL4" s="107"/>
+      <c r="EM4" s="108"/>
+      <c r="EN4" s="106">
         <f t="shared" si="26"/>
         <v>45838</v>
       </c>
-      <c r="EO4" s="99"/>
-      <c r="EP4" s="99"/>
-      <c r="EQ4" s="99"/>
-      <c r="ER4" s="99"/>
-      <c r="ES4" s="99"/>
-      <c r="ET4" s="100"/>
-      <c r="EU4" s="98">
+      <c r="EO4" s="107"/>
+      <c r="EP4" s="107"/>
+      <c r="EQ4" s="107"/>
+      <c r="ER4" s="107"/>
+      <c r="ES4" s="107"/>
+      <c r="ET4" s="108"/>
+      <c r="EU4" s="106">
         <f t="shared" si="26"/>
         <v>45845</v>
       </c>
-      <c r="EV4" s="99"/>
-      <c r="EW4" s="99"/>
-      <c r="EX4" s="99"/>
-      <c r="EY4" s="99"/>
-      <c r="EZ4" s="99"/>
-      <c r="FA4" s="100"/>
-      <c r="FB4" s="98">
+      <c r="EV4" s="107"/>
+      <c r="EW4" s="107"/>
+      <c r="EX4" s="107"/>
+      <c r="EY4" s="107"/>
+      <c r="EZ4" s="107"/>
+      <c r="FA4" s="108"/>
+      <c r="FB4" s="106">
         <f t="shared" si="26"/>
         <v>45852</v>
       </c>
-      <c r="FC4" s="99"/>
-      <c r="FD4" s="99"/>
-      <c r="FE4" s="99"/>
-      <c r="FF4" s="99"/>
-      <c r="FG4" s="99"/>
-      <c r="FH4" s="100"/>
-      <c r="FI4" s="98">
+      <c r="FC4" s="107"/>
+      <c r="FD4" s="107"/>
+      <c r="FE4" s="107"/>
+      <c r="FF4" s="107"/>
+      <c r="FG4" s="107"/>
+      <c r="FH4" s="108"/>
+      <c r="FI4" s="106">
         <f t="shared" si="26"/>
         <v>45859</v>
       </c>
-      <c r="FJ4" s="99"/>
-      <c r="FK4" s="99"/>
-      <c r="FL4" s="99"/>
-      <c r="FM4" s="99"/>
-      <c r="FN4" s="99"/>
-      <c r="FO4" s="100"/>
-      <c r="FP4" s="98">
+      <c r="FJ4" s="107"/>
+      <c r="FK4" s="107"/>
+      <c r="FL4" s="107"/>
+      <c r="FM4" s="107"/>
+      <c r="FN4" s="107"/>
+      <c r="FO4" s="108"/>
+      <c r="FP4" s="106">
         <f t="shared" ref="FP4:GY4" si="27">FP5</f>
         <v>45866</v>
       </c>
-      <c r="FQ4" s="99"/>
-      <c r="FR4" s="99"/>
-      <c r="FS4" s="99"/>
-      <c r="FT4" s="99"/>
-      <c r="FU4" s="99"/>
-      <c r="FV4" s="100"/>
-      <c r="FW4" s="98">
+      <c r="FQ4" s="107"/>
+      <c r="FR4" s="107"/>
+      <c r="FS4" s="107"/>
+      <c r="FT4" s="107"/>
+      <c r="FU4" s="107"/>
+      <c r="FV4" s="108"/>
+      <c r="FW4" s="106">
         <f t="shared" si="27"/>
         <v>45873</v>
       </c>
-      <c r="FX4" s="99"/>
-      <c r="FY4" s="99"/>
-      <c r="FZ4" s="99"/>
-      <c r="GA4" s="99"/>
-      <c r="GB4" s="99"/>
-      <c r="GC4" s="100"/>
-      <c r="GD4" s="98">
+      <c r="FX4" s="107"/>
+      <c r="FY4" s="107"/>
+      <c r="FZ4" s="107"/>
+      <c r="GA4" s="107"/>
+      <c r="GB4" s="107"/>
+      <c r="GC4" s="108"/>
+      <c r="GD4" s="106">
         <f t="shared" si="27"/>
         <v>45880</v>
       </c>
-      <c r="GE4" s="99"/>
-      <c r="GF4" s="99"/>
-      <c r="GG4" s="99"/>
-      <c r="GH4" s="99"/>
-      <c r="GI4" s="99"/>
-      <c r="GJ4" s="100"/>
-      <c r="GK4" s="98">
+      <c r="GE4" s="107"/>
+      <c r="GF4" s="107"/>
+      <c r="GG4" s="107"/>
+      <c r="GH4" s="107"/>
+      <c r="GI4" s="107"/>
+      <c r="GJ4" s="108"/>
+      <c r="GK4" s="106">
         <f t="shared" si="27"/>
         <v>45887</v>
       </c>
-      <c r="GL4" s="99"/>
-      <c r="GM4" s="99"/>
-      <c r="GN4" s="99"/>
-      <c r="GO4" s="99"/>
-      <c r="GP4" s="99"/>
-      <c r="GQ4" s="100"/>
-      <c r="GR4" s="98">
+      <c r="GL4" s="107"/>
+      <c r="GM4" s="107"/>
+      <c r="GN4" s="107"/>
+      <c r="GO4" s="107"/>
+      <c r="GP4" s="107"/>
+      <c r="GQ4" s="108"/>
+      <c r="GR4" s="106">
         <f t="shared" si="27"/>
         <v>45894</v>
       </c>
-      <c r="GS4" s="99"/>
-      <c r="GT4" s="99"/>
-      <c r="GU4" s="99"/>
-      <c r="GV4" s="99"/>
-      <c r="GW4" s="99"/>
-      <c r="GX4" s="100"/>
-      <c r="GY4" s="98">
+      <c r="GS4" s="107"/>
+      <c r="GT4" s="107"/>
+      <c r="GU4" s="107"/>
+      <c r="GV4" s="107"/>
+      <c r="GW4" s="107"/>
+      <c r="GX4" s="108"/>
+      <c r="GY4" s="106">
         <f t="shared" si="27"/>
         <v>45901</v>
       </c>
-      <c r="GZ4" s="99"/>
-      <c r="HA4" s="99"/>
-      <c r="HB4" s="99"/>
-      <c r="HC4" s="99"/>
-      <c r="HD4" s="99"/>
-      <c r="HE4" s="100"/>
+      <c r="GZ4" s="107"/>
+      <c r="HA4" s="107"/>
+      <c r="HB4" s="107"/>
+      <c r="HC4" s="107"/>
+      <c r="HD4" s="107"/>
+      <c r="HE4" s="108"/>
     </row>
-    <row r="5" spans="1:213" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:213" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
       <c r="B5" s="51"/>
       <c r="C5" s="51"/>
@@ -3564,7 +3563,7 @@
         <v>45907</v>
       </c>
     </row>
-    <row r="6" spans="1:213" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:213" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="38"/>
       <c r="B6" s="55" t="s">
         <v>3</v>
@@ -4404,7 +4403,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:213" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:213" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="44" t="s">
         <v>0</v>
       </c>
@@ -4620,7 +4619,7 @@
       <c r="HD7" s="60"/>
       <c r="HE7" s="60"/>
     </row>
-    <row r="8" spans="1:213" s="1" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:213" s="1" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="61">
         <v>1</v>
       </c>
@@ -4628,8 +4627,8 @@
         <v>26</v>
       </c>
       <c r="C8" s="4">
-        <f>AVERAGE(C9:C15)</f>
-        <v>0.82857142857142863</v>
+        <f>AVERAGE(C9:C14)</f>
+        <v>0.80000000000000016</v>
       </c>
       <c r="D8" s="5">
         <v>45708</v>
@@ -4642,7 +4641,7 @@
       <c r="H8" s="64"/>
       <c r="I8" s="65"/>
       <c r="J8" s="65">
-        <f t="shared" ref="J8:J30" si="238">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="J8:J28" si="238">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v>1</v>
       </c>
       <c r="K8" s="60"/>
@@ -4849,7 +4848,7 @@
       <c r="HD8" s="60"/>
       <c r="HE8" s="60"/>
     </row>
-    <row r="9" spans="1:213" s="1" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:213" s="1" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="66">
         <v>1.1000000000000001</v>
       </c>
@@ -5080,7 +5079,7 @@
       <c r="HD9" s="60"/>
       <c r="HE9" s="60"/>
     </row>
-    <row r="10" spans="1:213" s="1" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:213" s="1" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="68">
         <v>1.2</v>
       </c>
@@ -5314,7 +5313,7 @@
       <c r="HD10" s="60"/>
       <c r="HE10" s="60"/>
     </row>
-    <row r="11" spans="1:213" s="1" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:213" s="1" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="68">
         <v>1.3</v>
       </c>
@@ -5322,7 +5321,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="11">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="D11" s="12">
         <v>45720</v>
@@ -5539,12 +5538,12 @@
       <c r="HD11" s="60"/>
       <c r="HE11" s="60"/>
     </row>
-    <row r="12" spans="1:213" s="1" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:213" s="1" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="66">
         <v>1.4</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" s="8">
         <v>0.95</v>
@@ -5769,34 +5768,27 @@
       <c r="HD12" s="60"/>
       <c r="HE12" s="60"/>
     </row>
-    <row r="13" spans="1:213" s="1" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:213" s="1" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="66">
         <v>1.5</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C13" s="8">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="D13" s="9">
-        <v>45744</v>
+        <v>45750</v>
       </c>
       <c r="E13" s="9">
-        <v>45746</v>
-      </c>
-      <c r="F13" s="69" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="69" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="69"/>
+        <v>45750</v>
+      </c>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
       <c r="I13" s="65"/>
-      <c r="J13" s="65">
-        <f t="shared" si="238"/>
-        <v>3</v>
-      </c>
+      <c r="J13" s="65"/>
       <c r="K13" s="60"/>
       <c r="L13" s="60"/>
       <c r="M13" s="60"/>
@@ -6001,27 +5993,36 @@
       <c r="HD13" s="60"/>
       <c r="HE13" s="60"/>
     </row>
-    <row r="14" spans="1:213" s="1" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:213" s="1" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="66">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C14" s="8">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D14" s="9">
-        <v>45750</v>
+        <v>45751</v>
       </c>
       <c r="E14" s="9">
-        <v>45750</v>
-      </c>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
+        <v>45761</v>
+      </c>
+      <c r="F14" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="72" t="s">
+        <v>21</v>
+      </c>
       <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
+      <c r="J14" s="65">
+        <f t="shared" si="238"/>
+        <v>11</v>
+      </c>
       <c r="K14" s="60"/>
       <c r="L14" s="60"/>
       <c r="M14" s="60"/>
@@ -6038,7 +6039,7 @@
       <c r="X14" s="60"/>
       <c r="Y14" s="60"/>
       <c r="Z14" s="60"/>
-      <c r="AA14" s="60"/>
+      <c r="AA14" s="70"/>
       <c r="AB14" s="60"/>
       <c r="AC14" s="60"/>
       <c r="AD14" s="60"/>
@@ -6226,35 +6227,26 @@
       <c r="HD14" s="60"/>
       <c r="HE14" s="60"/>
     </row>
-    <row r="15" spans="1:213" s="1" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="66">
-        <v>1.7</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="D15" s="9">
-        <v>45751</v>
-      </c>
-      <c r="E15" s="9">
-        <v>45761</v>
-      </c>
-      <c r="F15" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="72" t="s">
-        <v>21</v>
-      </c>
+    <row r="15" spans="1:213" s="1" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="73">
+        <v>2</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="14">
+        <f>AVERAGE(C16:C23)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="75"/>
       <c r="I15" s="65"/>
-      <c r="J15" s="65">
+      <c r="J15" s="65" t="str">
         <f t="shared" si="238"/>
-        <v>11</v>
+        <v/>
       </c>
       <c r="K15" s="60"/>
       <c r="L15" s="60"/>
@@ -6272,7 +6264,7 @@
       <c r="X15" s="60"/>
       <c r="Y15" s="60"/>
       <c r="Z15" s="60"/>
-      <c r="AA15" s="70"/>
+      <c r="AA15" s="60"/>
       <c r="AB15" s="60"/>
       <c r="AC15" s="60"/>
       <c r="AD15" s="60"/>
@@ -6460,26 +6452,35 @@
       <c r="HD15" s="60"/>
       <c r="HE15" s="60"/>
     </row>
-    <row r="16" spans="1:213" s="1" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="73">
-        <v>2</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="14">
-        <f>AVERAGE(C17:C24)</f>
+    <row r="16" spans="1:213" s="1" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="76">
+        <v>2.1</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="18">
         <v>0</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="75"/>
+      <c r="D16" s="19">
+        <v>45764</v>
+      </c>
+      <c r="E16" s="19">
+        <v>45764</v>
+      </c>
+      <c r="F16" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="77" t="s">
+        <v>21</v>
+      </c>
       <c r="I16" s="65"/>
-      <c r="J16" s="65" t="str">
+      <c r="J16" s="65">
         <f t="shared" si="238"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K16" s="60"/>
       <c r="L16" s="60"/>
@@ -6685,36 +6686,33 @@
       <c r="HD16" s="60"/>
       <c r="HE16" s="60"/>
     </row>
-    <row r="17" spans="1:213" s="1" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="76">
-        <v>2.1</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="18">
+    <row r="17" spans="1:213" s="1" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="78">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="21">
         <v>0</v>
       </c>
-      <c r="D17" s="19">
-        <v>45764</v>
-      </c>
-      <c r="E17" s="19">
-        <v>45764</v>
-      </c>
-      <c r="F17" s="77" t="s">
+      <c r="D17" s="22">
+        <v>45763</v>
+      </c>
+      <c r="E17" s="22">
+        <v>45765</v>
+      </c>
+      <c r="F17" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="77" t="s">
+      <c r="G17" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="77" t="s">
+      <c r="H17" s="79" t="s">
         <v>21</v>
       </c>
       <c r="I17" s="65"/>
-      <c r="J17" s="65">
-        <f t="shared" si="238"/>
-        <v>1</v>
-      </c>
+      <c r="J17" s="65"/>
       <c r="K17" s="60"/>
       <c r="L17" s="60"/>
       <c r="M17" s="60"/>
@@ -6919,33 +6917,32 @@
       <c r="HD17" s="60"/>
       <c r="HE17" s="60"/>
     </row>
-    <row r="18" spans="1:213" s="1" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="78">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="21">
+    <row r="18" spans="1:213" s="1" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="80">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="24">
         <v>0</v>
       </c>
-      <c r="D18" s="22">
-        <v>45763</v>
-      </c>
-      <c r="E18" s="22">
-        <v>45765</v>
-      </c>
-      <c r="F18" s="79" t="s">
+      <c r="D18" s="25">
+        <v>45766</v>
+      </c>
+      <c r="E18" s="25">
+        <v>45777</v>
+      </c>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="79" t="s">
-        <v>21</v>
-      </c>
       <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
+      <c r="J18" s="65">
+        <f t="shared" si="238"/>
+        <v>12</v>
+      </c>
       <c r="K18" s="60"/>
       <c r="L18" s="60"/>
       <c r="M18" s="60"/>
@@ -6958,8 +6955,8 @@
       <c r="T18" s="60"/>
       <c r="U18" s="60"/>
       <c r="V18" s="60"/>
-      <c r="W18" s="60"/>
-      <c r="X18" s="60"/>
+      <c r="W18" s="70"/>
+      <c r="X18" s="70"/>
       <c r="Y18" s="60"/>
       <c r="Z18" s="60"/>
       <c r="AA18" s="60"/>
@@ -7150,31 +7147,35 @@
       <c r="HD18" s="60"/>
       <c r="HE18" s="60"/>
     </row>
-    <row r="19" spans="1:213" s="1" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="80">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="24">
+    <row r="19" spans="1:213" s="1" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="78">
+        <v>2.4</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="21">
         <v>0</v>
       </c>
-      <c r="D19" s="25">
-        <v>45766</v>
-      </c>
-      <c r="E19" s="25">
-        <v>45777</v>
-      </c>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
+      <c r="D19" s="22">
+        <v>45821</v>
+      </c>
+      <c r="E19" s="22">
+        <v>45821</v>
+      </c>
+      <c r="F19" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="81" t="s">
+        <v>21</v>
+      </c>
       <c r="H19" s="81" t="s">
         <v>21</v>
       </c>
       <c r="I19" s="65"/>
       <c r="J19" s="65">
         <f t="shared" si="238"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K19" s="60"/>
       <c r="L19" s="60"/>
@@ -7188,8 +7189,8 @@
       <c r="T19" s="60"/>
       <c r="U19" s="60"/>
       <c r="V19" s="60"/>
-      <c r="W19" s="70"/>
-      <c r="X19" s="70"/>
+      <c r="W19" s="60"/>
+      <c r="X19" s="60"/>
       <c r="Y19" s="60"/>
       <c r="Z19" s="60"/>
       <c r="AA19" s="60"/>
@@ -7380,36 +7381,29 @@
       <c r="HD19" s="60"/>
       <c r="HE19" s="60"/>
     </row>
-    <row r="20" spans="1:213" s="1" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="78">
-        <v>2.4</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="21">
+    <row r="20" spans="1:213" s="1" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="80">
+        <v>2.5</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="24">
         <v>0</v>
       </c>
-      <c r="D20" s="22">
-        <v>45821</v>
-      </c>
-      <c r="E20" s="22">
-        <v>45821</v>
-      </c>
-      <c r="F20" s="81" t="s">
-        <v>21</v>
-      </c>
+      <c r="D20" s="25">
+        <v>45778</v>
+      </c>
+      <c r="E20" s="25">
+        <v>45805</v>
+      </c>
+      <c r="F20" s="81"/>
       <c r="G20" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="81" t="s">
-        <v>21</v>
-      </c>
+      <c r="H20" s="81"/>
       <c r="I20" s="65"/>
-      <c r="J20" s="65">
-        <f t="shared" si="238"/>
-        <v>1</v>
-      </c>
+      <c r="J20" s="65"/>
       <c r="K20" s="60"/>
       <c r="L20" s="60"/>
       <c r="M20" s="60"/>
@@ -7614,21 +7608,21 @@
       <c r="HD20" s="60"/>
       <c r="HE20" s="60"/>
     </row>
-    <row r="21" spans="1:213" s="1" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="80">
-        <v>2.5</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>41</v>
+    <row r="21" spans="1:213" s="1" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="82" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>39</v>
       </c>
       <c r="C21" s="24">
         <v>0</v>
       </c>
       <c r="D21" s="25">
-        <v>45778</v>
+        <v>45806</v>
       </c>
       <c r="E21" s="25">
-        <v>45805</v>
+        <v>45819</v>
       </c>
       <c r="F21" s="81"/>
       <c r="G21" s="81" t="s">
@@ -7653,7 +7647,7 @@
       <c r="X21" s="60"/>
       <c r="Y21" s="60"/>
       <c r="Z21" s="60"/>
-      <c r="AA21" s="60"/>
+      <c r="AA21" s="70"/>
       <c r="AB21" s="60"/>
       <c r="AC21" s="60"/>
       <c r="AD21" s="60"/>
@@ -7841,23 +7835,25 @@
       <c r="HD21" s="60"/>
       <c r="HE21" s="60"/>
     </row>
-    <row r="22" spans="1:213" s="1" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="82" t="s">
-        <v>24</v>
+    <row r="22" spans="1:213" s="1" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="83" t="s">
+        <v>25</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="24">
         <v>0</v>
       </c>
       <c r="D22" s="25">
-        <v>45806</v>
+        <v>45820</v>
       </c>
       <c r="E22" s="25">
-        <v>45819</v>
-      </c>
-      <c r="F22" s="81"/>
+        <v>45833</v>
+      </c>
+      <c r="F22" s="81" t="s">
+        <v>21</v>
+      </c>
       <c r="G22" s="81" t="s">
         <v>21</v>
       </c>
@@ -8068,29 +8064,31 @@
       <c r="HD22" s="60"/>
       <c r="HE22" s="60"/>
     </row>
-    <row r="23" spans="1:213" s="1" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:213" s="1" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="83" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="24">
+        <v>37</v>
+      </c>
+      <c r="C23" s="27">
         <v>0</v>
       </c>
-      <c r="D23" s="25">
-        <v>45820</v>
-      </c>
-      <c r="E23" s="25">
-        <v>45833</v>
-      </c>
-      <c r="F23" s="81" t="s">
+      <c r="D23" s="28">
+        <v>45834</v>
+      </c>
+      <c r="E23" s="28">
+        <v>45854</v>
+      </c>
+      <c r="F23" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="81" t="s">
+      <c r="G23" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="81"/>
+      <c r="H23" s="84" t="s">
+        <v>21</v>
+      </c>
       <c r="I23" s="65"/>
       <c r="J23" s="65"/>
       <c r="K23" s="60"/>
@@ -8297,33 +8295,27 @@
       <c r="HD23" s="60"/>
       <c r="HE23" s="60"/>
     </row>
-    <row r="24" spans="1:213" s="1" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="27">
+    <row r="24" spans="1:213" s="1" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="85">
+        <v>3</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="29">
+        <f>AVERAGE(C25:C27)</f>
         <v>0</v>
       </c>
-      <c r="D24" s="28">
-        <v>45834</v>
-      </c>
-      <c r="E24" s="28">
-        <v>45854</v>
-      </c>
-      <c r="F24" s="84" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="84" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="84" t="s">
-        <v>21</v>
-      </c>
+      <c r="D24" s="30"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="88"/>
       <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
+      <c r="J24" s="65" t="str">
+        <f t="shared" si="238"/>
+        <v/>
+      </c>
       <c r="K24" s="60"/>
       <c r="L24" s="60"/>
       <c r="M24" s="60"/>
@@ -8340,7 +8332,7 @@
       <c r="X24" s="60"/>
       <c r="Y24" s="60"/>
       <c r="Z24" s="60"/>
-      <c r="AA24" s="70"/>
+      <c r="AA24" s="60"/>
       <c r="AB24" s="60"/>
       <c r="AC24" s="60"/>
       <c r="AD24" s="60"/>
@@ -8528,26 +8520,35 @@
       <c r="HD24" s="60"/>
       <c r="HE24" s="60"/>
     </row>
-    <row r="25" spans="1:213" s="1" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="85">
-        <v>3</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="29">
-        <f>AVERAGE(C26:C28)</f>
+    <row r="25" spans="1:213" s="1" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="89">
+        <v>3.1</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="33">
         <v>0</v>
       </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="88"/>
+      <c r="D25" s="34">
+        <v>45859</v>
+      </c>
+      <c r="E25" s="34">
+        <v>45859</v>
+      </c>
+      <c r="F25" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="90" t="s">
+        <v>21</v>
+      </c>
       <c r="I25" s="65"/>
-      <c r="J25" s="65" t="str">
+      <c r="J25" s="65">
         <f t="shared" si="238"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K25" s="60"/>
       <c r="L25" s="60"/>
@@ -8753,36 +8754,27 @@
       <c r="HD25" s="60"/>
       <c r="HE25" s="60"/>
     </row>
-    <row r="26" spans="1:213" s="1" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="89">
-        <v>3.1</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="33">
+    <row r="26" spans="1:213" s="1" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="91">
+        <v>3.2</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="36">
         <v>0</v>
       </c>
-      <c r="D26" s="34">
-        <v>45859</v>
-      </c>
-      <c r="E26" s="34">
-        <v>45859</v>
-      </c>
-      <c r="F26" s="90" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="90" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="90" t="s">
-        <v>21</v>
-      </c>
+      <c r="D26" s="37">
+        <v>45860</v>
+      </c>
+      <c r="E26" s="37">
+        <v>45895</v>
+      </c>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="90"/>
       <c r="I26" s="65"/>
-      <c r="J26" s="65">
-        <f t="shared" si="238"/>
-        <v>1</v>
-      </c>
+      <c r="J26" s="65"/>
       <c r="K26" s="60"/>
       <c r="L26" s="60"/>
       <c r="M26" s="60"/>
@@ -8987,27 +8979,36 @@
       <c r="HD26" s="60"/>
       <c r="HE26" s="60"/>
     </row>
-    <row r="27" spans="1:213" s="1" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:213" s="1" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="91">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="36">
         <v>0</v>
       </c>
       <c r="D27" s="37">
-        <v>45860</v>
+        <v>45896</v>
       </c>
       <c r="E27" s="37">
-        <v>45895</v>
-      </c>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="90"/>
+        <v>45905</v>
+      </c>
+      <c r="F27" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="79" t="s">
+        <v>21</v>
+      </c>
       <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
+      <c r="J27" s="65">
+        <f t="shared" si="238"/>
+        <v>10</v>
+      </c>
       <c r="K27" s="60"/>
       <c r="L27" s="60"/>
       <c r="M27" s="60"/>
@@ -9212,35 +9213,21 @@
       <c r="HD27" s="60"/>
       <c r="HE27" s="60"/>
     </row>
-    <row r="28" spans="1:213" s="1" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="91">
-        <v>3.3</v>
-      </c>
-      <c r="B28" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="36">
-        <v>0</v>
-      </c>
-      <c r="D28" s="37">
-        <v>45896</v>
-      </c>
-      <c r="E28" s="37">
-        <v>45905</v>
-      </c>
-      <c r="F28" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" s="79" t="s">
-        <v>21</v>
-      </c>
+    <row r="28" spans="1:213" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="95"/>
       <c r="I28" s="65"/>
-      <c r="J28" s="65">
+      <c r="J28" s="65" t="str">
         <f t="shared" si="238"/>
-        <v>10</v>
+        <v/>
       </c>
       <c r="K28" s="60"/>
       <c r="L28" s="60"/>
@@ -9446,242 +9433,65 @@
       <c r="HD28" s="60"/>
       <c r="HE28" s="60"/>
     </row>
-    <row r="29" spans="1:213" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="95"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65" t="str">
-        <f t="shared" si="238"/>
-        <v/>
-      </c>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="60"/>
-      <c r="U29" s="60"/>
-      <c r="V29" s="60"/>
-      <c r="W29" s="60"/>
-      <c r="X29" s="60"/>
-      <c r="Y29" s="60"/>
-      <c r="Z29" s="60"/>
-      <c r="AA29" s="60"/>
-      <c r="AB29" s="60"/>
-      <c r="AC29" s="60"/>
-      <c r="AD29" s="60"/>
-      <c r="AE29" s="60"/>
-      <c r="AF29" s="60"/>
-      <c r="AG29" s="60"/>
-      <c r="AH29" s="60"/>
-      <c r="AI29" s="60"/>
-      <c r="AJ29" s="60"/>
-      <c r="AK29" s="60"/>
-      <c r="AL29" s="60"/>
-      <c r="AM29" s="60"/>
-      <c r="AN29" s="60"/>
-      <c r="AO29" s="60"/>
-      <c r="AP29" s="60"/>
-      <c r="AQ29" s="60"/>
-      <c r="AR29" s="60"/>
-      <c r="AS29" s="60"/>
-      <c r="AT29" s="60"/>
-      <c r="AU29" s="60"/>
-      <c r="AV29" s="60"/>
-      <c r="AW29" s="60"/>
-      <c r="AX29" s="60"/>
-      <c r="AY29" s="60"/>
-      <c r="AZ29" s="60"/>
-      <c r="BA29" s="60"/>
-      <c r="BB29" s="60"/>
-      <c r="BC29" s="60"/>
-      <c r="BD29" s="60"/>
-      <c r="BE29" s="60"/>
-      <c r="BF29" s="60"/>
-      <c r="BG29" s="60"/>
-      <c r="BH29" s="60"/>
-      <c r="BI29" s="60"/>
-      <c r="BJ29" s="60"/>
-      <c r="BK29" s="60"/>
-      <c r="BL29" s="60"/>
-      <c r="BM29" s="60"/>
-      <c r="BN29" s="60"/>
-      <c r="BO29" s="60"/>
-      <c r="BP29" s="60"/>
-      <c r="BQ29" s="60"/>
-      <c r="BR29" s="60"/>
-      <c r="BS29" s="60"/>
-      <c r="BT29" s="60"/>
-      <c r="BU29" s="60"/>
-      <c r="BV29" s="60"/>
-      <c r="BW29" s="60"/>
-      <c r="BX29" s="60"/>
-      <c r="BY29" s="60"/>
-      <c r="BZ29" s="60"/>
-      <c r="CA29" s="60"/>
-      <c r="CB29" s="60"/>
-      <c r="CC29" s="60"/>
-      <c r="CD29" s="60"/>
-      <c r="CE29" s="60"/>
-      <c r="CF29" s="60"/>
-      <c r="CG29" s="60"/>
-      <c r="CH29" s="60"/>
-      <c r="CI29" s="60"/>
-      <c r="CJ29" s="60"/>
-      <c r="CK29" s="60"/>
-      <c r="CL29" s="60"/>
-      <c r="CM29" s="60"/>
-      <c r="CN29" s="60"/>
-      <c r="CO29" s="60"/>
-      <c r="CP29" s="60"/>
-      <c r="CQ29" s="60"/>
-      <c r="CR29" s="60"/>
-      <c r="CS29" s="60"/>
-      <c r="CT29" s="60"/>
-      <c r="CU29" s="60"/>
-      <c r="CV29" s="60"/>
-      <c r="CW29" s="60"/>
-      <c r="CX29" s="60"/>
-      <c r="CY29" s="60"/>
-      <c r="CZ29" s="60"/>
-      <c r="DA29" s="60"/>
-      <c r="DB29" s="60"/>
-      <c r="DC29" s="60"/>
-      <c r="DD29" s="60"/>
-      <c r="DE29" s="60"/>
-      <c r="DF29" s="60"/>
-      <c r="DG29" s="60"/>
-      <c r="DH29" s="60"/>
-      <c r="DI29" s="60"/>
-      <c r="DJ29" s="60"/>
-      <c r="DK29" s="60"/>
-      <c r="DL29" s="60"/>
-      <c r="DM29" s="60"/>
-      <c r="DN29" s="60"/>
-      <c r="DO29" s="60"/>
-      <c r="DP29" s="60"/>
-      <c r="DQ29" s="60"/>
-      <c r="DR29" s="60"/>
-      <c r="DS29" s="60"/>
-      <c r="DT29" s="60"/>
-      <c r="DU29" s="60"/>
-      <c r="DV29" s="60"/>
-      <c r="DW29" s="60"/>
-      <c r="DX29" s="60"/>
-      <c r="DY29" s="60"/>
-      <c r="DZ29" s="60"/>
-      <c r="EA29" s="60"/>
-      <c r="EB29" s="60"/>
-      <c r="EC29" s="60"/>
-      <c r="ED29" s="60"/>
-      <c r="EE29" s="60"/>
-      <c r="EF29" s="60"/>
-      <c r="EG29" s="60"/>
-      <c r="EH29" s="60"/>
-      <c r="EI29" s="60"/>
-      <c r="EJ29" s="60"/>
-      <c r="EK29" s="60"/>
-      <c r="EL29" s="60"/>
-      <c r="EM29" s="60"/>
-      <c r="EN29" s="60"/>
-      <c r="EO29" s="60"/>
-      <c r="EP29" s="60"/>
-      <c r="EQ29" s="60"/>
-      <c r="ER29" s="60"/>
-      <c r="ES29" s="60"/>
-      <c r="ET29" s="60"/>
-      <c r="EU29" s="60"/>
-      <c r="EV29" s="60"/>
-      <c r="EW29" s="60"/>
-      <c r="EX29" s="60"/>
-      <c r="EY29" s="60"/>
-      <c r="EZ29" s="60"/>
-      <c r="FA29" s="60"/>
-      <c r="FB29" s="60"/>
-      <c r="FC29" s="60"/>
-      <c r="FD29" s="60"/>
-      <c r="FE29" s="60"/>
-      <c r="FF29" s="60"/>
-      <c r="FG29" s="60"/>
-      <c r="FH29" s="60"/>
-      <c r="FI29" s="60"/>
-      <c r="FJ29" s="60"/>
-      <c r="FK29" s="60"/>
-      <c r="FL29" s="60"/>
-      <c r="FM29" s="60"/>
-      <c r="FN29" s="60"/>
-      <c r="FO29" s="60"/>
-      <c r="FP29" s="60"/>
-      <c r="FQ29" s="60"/>
-      <c r="FR29" s="60"/>
-      <c r="FS29" s="60"/>
-      <c r="FT29" s="60"/>
-      <c r="FU29" s="60"/>
-      <c r="FV29" s="60"/>
-      <c r="FW29" s="60"/>
-      <c r="FX29" s="60"/>
-      <c r="FY29" s="60"/>
-      <c r="FZ29" s="60"/>
-      <c r="GA29" s="60"/>
-      <c r="GB29" s="60"/>
-      <c r="GC29" s="60"/>
-      <c r="GD29" s="60"/>
-      <c r="GE29" s="60"/>
-      <c r="GF29" s="60"/>
-      <c r="GG29" s="60"/>
-      <c r="GH29" s="60"/>
-      <c r="GI29" s="60"/>
-      <c r="GJ29" s="60"/>
-      <c r="GK29" s="60"/>
-      <c r="GL29" s="60"/>
-      <c r="GM29" s="60"/>
-      <c r="GN29" s="60"/>
-      <c r="GO29" s="60"/>
-      <c r="GP29" s="60"/>
-      <c r="GQ29" s="60"/>
-      <c r="GR29" s="60"/>
-      <c r="GS29" s="60"/>
-      <c r="GT29" s="60"/>
-      <c r="GU29" s="60"/>
-      <c r="GV29" s="60"/>
-      <c r="GW29" s="60"/>
-      <c r="GX29" s="60"/>
-      <c r="GY29" s="60"/>
-      <c r="GZ29" s="60"/>
-      <c r="HA29" s="60"/>
-      <c r="HB29" s="60"/>
-      <c r="HC29" s="60"/>
-      <c r="HD29" s="60"/>
-      <c r="HE29" s="60"/>
+    <row r="29" spans="1:213" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="38" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="1:213" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="s">
-        <v>2</v>
-      </c>
+    <row r="30" spans="1:213" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I30" s="96"/>
     </row>
-    <row r="31" spans="1:213" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I31" s="96"/>
-    </row>
-    <row r="32" spans="1:213" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E32" s="97"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="97"/>
+    <row r="31" spans="1:213" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="97"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="GK4:GQ4"/>
+    <mergeCell ref="GR4:GX4"/>
+    <mergeCell ref="GY4:HE4"/>
+    <mergeCell ref="GK3:GQ3"/>
+    <mergeCell ref="GR3:GX3"/>
+    <mergeCell ref="GY3:HE3"/>
+    <mergeCell ref="FP3:FV3"/>
+    <mergeCell ref="FW3:GC3"/>
+    <mergeCell ref="GD3:GJ3"/>
+    <mergeCell ref="FP4:FV4"/>
+    <mergeCell ref="FW4:GC4"/>
+    <mergeCell ref="GD4:GJ4"/>
+    <mergeCell ref="EU3:FA3"/>
+    <mergeCell ref="FB3:FH3"/>
+    <mergeCell ref="FI3:FO3"/>
+    <mergeCell ref="EN4:ET4"/>
+    <mergeCell ref="EU4:FA4"/>
+    <mergeCell ref="FB4:FH4"/>
+    <mergeCell ref="FI4:FO4"/>
+    <mergeCell ref="DZ3:EF3"/>
+    <mergeCell ref="EG3:EM3"/>
+    <mergeCell ref="DZ4:EF4"/>
+    <mergeCell ref="EG4:EM4"/>
+    <mergeCell ref="EN3:ET3"/>
+    <mergeCell ref="AT3:AZ3"/>
+    <mergeCell ref="DS3:DY3"/>
+    <mergeCell ref="DS4:DY4"/>
+    <mergeCell ref="CX3:DD3"/>
+    <mergeCell ref="DE3:DK3"/>
+    <mergeCell ref="DL3:DR3"/>
+    <mergeCell ref="CX4:DD4"/>
+    <mergeCell ref="DE4:DK4"/>
+    <mergeCell ref="DL4:DR4"/>
+    <mergeCell ref="CQ3:CW3"/>
+    <mergeCell ref="BO4:BU4"/>
+    <mergeCell ref="BV4:CB4"/>
+    <mergeCell ref="CC4:CI4"/>
+    <mergeCell ref="CJ4:CP4"/>
+    <mergeCell ref="CQ4:CW4"/>
+    <mergeCell ref="BO3:BU3"/>
+    <mergeCell ref="BV3:CB3"/>
+    <mergeCell ref="CC3:CI3"/>
+    <mergeCell ref="CJ3:CP3"/>
     <mergeCell ref="BA3:BG3"/>
     <mergeCell ref="BH3:BN3"/>
     <mergeCell ref="D3:E3"/>
@@ -9694,55 +9504,12 @@
     <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AL3"/>
     <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="CQ3:CW3"/>
-    <mergeCell ref="BO4:BU4"/>
-    <mergeCell ref="BV4:CB4"/>
-    <mergeCell ref="CC4:CI4"/>
-    <mergeCell ref="CJ4:CP4"/>
-    <mergeCell ref="CQ4:CW4"/>
-    <mergeCell ref="BO3:BU3"/>
-    <mergeCell ref="BV3:CB3"/>
-    <mergeCell ref="CC3:CI3"/>
-    <mergeCell ref="CJ3:CP3"/>
     <mergeCell ref="AT4:AZ4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BH4:BN4"/>
     <mergeCell ref="AM3:AS3"/>
-    <mergeCell ref="AT3:AZ3"/>
-    <mergeCell ref="DS3:DY3"/>
-    <mergeCell ref="DS4:DY4"/>
-    <mergeCell ref="CX3:DD3"/>
-    <mergeCell ref="DE3:DK3"/>
-    <mergeCell ref="DL3:DR3"/>
-    <mergeCell ref="CX4:DD4"/>
-    <mergeCell ref="DE4:DK4"/>
-    <mergeCell ref="DL4:DR4"/>
-    <mergeCell ref="DZ3:EF3"/>
-    <mergeCell ref="EG3:EM3"/>
-    <mergeCell ref="DZ4:EF4"/>
-    <mergeCell ref="EG4:EM4"/>
-    <mergeCell ref="EN3:ET3"/>
-    <mergeCell ref="EU3:FA3"/>
-    <mergeCell ref="FB3:FH3"/>
-    <mergeCell ref="FI3:FO3"/>
-    <mergeCell ref="EN4:ET4"/>
-    <mergeCell ref="EU4:FA4"/>
-    <mergeCell ref="FB4:FH4"/>
-    <mergeCell ref="FI4:FO4"/>
-    <mergeCell ref="FP3:FV3"/>
-    <mergeCell ref="FW3:GC3"/>
-    <mergeCell ref="GD3:GJ3"/>
-    <mergeCell ref="FP4:FV4"/>
-    <mergeCell ref="FW4:GC4"/>
-    <mergeCell ref="GD4:GJ4"/>
-    <mergeCell ref="GK4:GQ4"/>
-    <mergeCell ref="GR4:GX4"/>
-    <mergeCell ref="GY4:HE4"/>
-    <mergeCell ref="GK3:GQ3"/>
-    <mergeCell ref="GR3:GX3"/>
-    <mergeCell ref="GY3:HE3"/>
   </mergeCells>
-  <conditionalFormatting sqref="C7:C8 B25 C16:C17 C29 C21:C27 C10:C14">
+  <conditionalFormatting sqref="C7:C8 B24 C15:C16 C28 C20:C26 C10:C13">
     <cfRule type="dataBar" priority="38">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9770,7 +9537,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
+  <conditionalFormatting sqref="C14">
     <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9784,7 +9551,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C19">
+  <conditionalFormatting sqref="C17:C18">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9798,7 +9565,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
+  <conditionalFormatting sqref="C19">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9812,7 +9579,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
+  <conditionalFormatting sqref="C27">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -9826,38 +9593,38 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:E28">
+  <conditionalFormatting sqref="D8:E27">
     <cfRule type="expression" dxfId="5" priority="1">
       <formula>IF($D$8&lt;1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:DX15 DZ5:EE15 EG5:EL15 EN5:ES15 EU5:EZ15 FB5:FG15 FI5:FN15 FP5:FU15 FW5:GB15 GD5:GI15 GK5:GP15 GR5:GW15 GY5:HD15 K16:HE29">
+  <conditionalFormatting sqref="K15:HE28 K5:DX14 DZ5:EE14 EG5:EL14 EN5:ES14 EU5:EZ14 FB5:FG14 FI5:FN14 FP5:FU14 FW5:GB14 GD5:GI14 GK5:GP14 GR5:GW14 GY5:HD14">
     <cfRule type="expression" dxfId="4" priority="57">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:DX15 DZ7:EE15 EG7:EL15 EN7:ES15 EU7:EZ15 FB7:FG15 FI7:FN15 FP7:FU15 FW7:GB15 GD7:GI15 GK7:GP15 GR7:GW15 GY7:HD15 K16:HE29">
+  <conditionalFormatting sqref="K15:HE28 K7:DX14 DZ7:EE14 EG7:EL14 EN7:ES14 EU7:EZ14 FB7:FG14 FI7:FN14 FP7:FU14 FW7:GB14 GD7:GI14 GK7:GP14 GR7:GW14 GY7:HD14">
     <cfRule type="expression" dxfId="3" priority="52" stopIfTrue="1">
       <formula>AND(task_end&gt;=K$5,task_start&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:HE29">
+  <conditionalFormatting sqref="K7:HE28">
     <cfRule type="expression" dxfId="2" priority="51">
       <formula>AND(task_start&lt;=K$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DY5:DY15 EF5:EF15 EM5:EM15 ET5:ET15 FA5:FA15 FH5:FH15 FO5:FO15 FV5:FV15 GC5:GC15 GJ5:GJ15 GQ5:GQ15 GX5:GX15 HE5:HE15">
+  <conditionalFormatting sqref="DY5:DY14 EF5:EF14 EM5:EM14 ET5:ET14 FA5:FA14 FH5:FH14 FO5:FO14 FV5:FV14 GC5:GC14 GJ5:GJ14 GQ5:GQ14 GX5:GX14 HE5:HE14">
     <cfRule type="expression" dxfId="1" priority="59">
       <formula>AND(TODAY()&gt;=DY$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DY7:DY15 EF7:EF15 EM7:EM15 ET7:ET15 FA7:FA15 FH7:FH15 FO7:FO15 FV7:FV15 GC7:GC15 GJ7:GJ15 GQ7:GQ15 GX7:GX15 HE7:HE15">
+  <conditionalFormatting sqref="DY7:DY14 EF7:EF14 EM7:EM14 ET7:ET14 FA7:FA14 FH7:FH14 FO7:FO14 FV7:FV14 GC7:GC14 GJ7:GJ14 GQ7:GQ14 GX7:GX14 HE7:HE14">
     <cfRule type="expression" dxfId="0" priority="63" stopIfTrue="1">
       <formula>AND(task_end&gt;=DY$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Woche anzeigen" prompt="Das Ändern dieser Zahl bewirkt ein Scrollen in der Gantt-Diagrammansicht." sqref="D4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Woche anzeigen" prompt="Das Ändern dieser Zahl bewirkt ein Scrollen in der Gantt-Diagrammansicht." sqref="D4">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
@@ -9883,7 +9650,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C7:C8 B25 C16:C17 C29 C21:C27 C10:C14</xm:sqref>
+          <xm:sqref>C7:C8 B24 C15:C16 C28 C20:C26 C10:C13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9D189DAC-5385-49A1-B85A-9D942D632D99}">
@@ -9913,7 +9680,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C15</xm:sqref>
+          <xm:sqref>C14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{45718938-B270-4032-AFCA-A49FEA5CC53C}">
@@ -9928,7 +9695,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C18:C19</xm:sqref>
+          <xm:sqref>C17:C18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{41A8F622-B214-485D-ABB5-F6ACED049331}">
@@ -9943,7 +9710,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C20</xm:sqref>
+          <xm:sqref>C19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A84E2378-35B3-4AF3-80E9-82269B939296}">
@@ -9958,7 +9725,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C28</xm:sqref>
+          <xm:sqref>C27</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -9967,64 +9734,64 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -10035,12 +9802,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10332,29 +10110,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10381,20 +10159,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Detail-Planung.xlsx
+++ b/Detail-Planung.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
@@ -1496,6 +1496,15 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="174" fontId="32" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="32" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="32" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="173" fontId="33" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1518,15 +1527,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="174" fontId="32" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="32" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="32" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="32" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -2113,9 +2113,9 @@
   </sheetPr>
   <dimension ref="A1:HE31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="HE28" sqref="A3:HE28"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A3:HE27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2150,300 +2150,300 @@
     <row r="3" spans="1:213" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="47"/>
       <c r="C3" s="48"/>
-      <c r="D3" s="101">
+      <c r="D3" s="104">
         <v>45658</v>
       </c>
-      <c r="E3" s="102"/>
-      <c r="K3" s="98">
+      <c r="E3" s="105"/>
+      <c r="K3" s="101">
         <f>_xlfn.ISOWEEKNUM(K4)</f>
         <v>8</v>
       </c>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
-      <c r="P3" s="99"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="98">
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="101">
         <f t="shared" ref="R3" si="0">_xlfn.ISOWEEKNUM(R4)</f>
         <v>9</v>
       </c>
-      <c r="S3" s="99"/>
-      <c r="T3" s="99"/>
-      <c r="U3" s="99"/>
-      <c r="V3" s="99"/>
-      <c r="W3" s="99"/>
-      <c r="X3" s="100"/>
-      <c r="Y3" s="98">
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
+      <c r="U3" s="102"/>
+      <c r="V3" s="102"/>
+      <c r="W3" s="102"/>
+      <c r="X3" s="103"/>
+      <c r="Y3" s="101">
         <f t="shared" ref="Y3" si="1">_xlfn.ISOWEEKNUM(Y4)</f>
         <v>10</v>
       </c>
-      <c r="Z3" s="99"/>
-      <c r="AA3" s="99"/>
-      <c r="AB3" s="99"/>
-      <c r="AC3" s="99"/>
-      <c r="AD3" s="99"/>
-      <c r="AE3" s="100"/>
-      <c r="AF3" s="98">
+      <c r="Z3" s="102"/>
+      <c r="AA3" s="102"/>
+      <c r="AB3" s="102"/>
+      <c r="AC3" s="102"/>
+      <c r="AD3" s="102"/>
+      <c r="AE3" s="103"/>
+      <c r="AF3" s="101">
         <f t="shared" ref="AF3" si="2">_xlfn.ISOWEEKNUM(AF4)</f>
         <v>11</v>
       </c>
-      <c r="AG3" s="99"/>
-      <c r="AH3" s="99"/>
-      <c r="AI3" s="99"/>
-      <c r="AJ3" s="99"/>
-      <c r="AK3" s="99"/>
-      <c r="AL3" s="100"/>
-      <c r="AM3" s="98">
+      <c r="AG3" s="102"/>
+      <c r="AH3" s="102"/>
+      <c r="AI3" s="102"/>
+      <c r="AJ3" s="102"/>
+      <c r="AK3" s="102"/>
+      <c r="AL3" s="103"/>
+      <c r="AM3" s="101">
         <f t="shared" ref="AM3" si="3">_xlfn.ISOWEEKNUM(AM4)</f>
         <v>12</v>
       </c>
-      <c r="AN3" s="99"/>
-      <c r="AO3" s="99"/>
-      <c r="AP3" s="99"/>
-      <c r="AQ3" s="99"/>
-      <c r="AR3" s="99"/>
-      <c r="AS3" s="100"/>
-      <c r="AT3" s="98">
+      <c r="AN3" s="102"/>
+      <c r="AO3" s="102"/>
+      <c r="AP3" s="102"/>
+      <c r="AQ3" s="102"/>
+      <c r="AR3" s="102"/>
+      <c r="AS3" s="103"/>
+      <c r="AT3" s="101">
         <f t="shared" ref="AT3" si="4">_xlfn.ISOWEEKNUM(AT4)</f>
         <v>13</v>
       </c>
-      <c r="AU3" s="99"/>
-      <c r="AV3" s="99"/>
-      <c r="AW3" s="99"/>
-      <c r="AX3" s="99"/>
-      <c r="AY3" s="99"/>
-      <c r="AZ3" s="100"/>
-      <c r="BA3" s="98">
+      <c r="AU3" s="102"/>
+      <c r="AV3" s="102"/>
+      <c r="AW3" s="102"/>
+      <c r="AX3" s="102"/>
+      <c r="AY3" s="102"/>
+      <c r="AZ3" s="103"/>
+      <c r="BA3" s="101">
         <f t="shared" ref="BA3" si="5">_xlfn.ISOWEEKNUM(BA4)</f>
         <v>14</v>
       </c>
-      <c r="BB3" s="99"/>
-      <c r="BC3" s="99"/>
-      <c r="BD3" s="99"/>
-      <c r="BE3" s="99"/>
-      <c r="BF3" s="99"/>
-      <c r="BG3" s="100"/>
-      <c r="BH3" s="98">
+      <c r="BB3" s="102"/>
+      <c r="BC3" s="102"/>
+      <c r="BD3" s="102"/>
+      <c r="BE3" s="102"/>
+      <c r="BF3" s="102"/>
+      <c r="BG3" s="103"/>
+      <c r="BH3" s="101">
         <f t="shared" ref="BH3" si="6">_xlfn.ISOWEEKNUM(BH4)</f>
         <v>15</v>
       </c>
-      <c r="BI3" s="99"/>
-      <c r="BJ3" s="99"/>
-      <c r="BK3" s="99"/>
-      <c r="BL3" s="99"/>
-      <c r="BM3" s="99"/>
-      <c r="BN3" s="100"/>
-      <c r="BO3" s="98">
+      <c r="BI3" s="102"/>
+      <c r="BJ3" s="102"/>
+      <c r="BK3" s="102"/>
+      <c r="BL3" s="102"/>
+      <c r="BM3" s="102"/>
+      <c r="BN3" s="103"/>
+      <c r="BO3" s="101">
         <f t="shared" ref="BO3" si="7">_xlfn.ISOWEEKNUM(BO4)</f>
         <v>16</v>
       </c>
-      <c r="BP3" s="99"/>
-      <c r="BQ3" s="99"/>
-      <c r="BR3" s="99"/>
-      <c r="BS3" s="99"/>
-      <c r="BT3" s="99"/>
-      <c r="BU3" s="100"/>
-      <c r="BV3" s="98">
+      <c r="BP3" s="102"/>
+      <c r="BQ3" s="102"/>
+      <c r="BR3" s="102"/>
+      <c r="BS3" s="102"/>
+      <c r="BT3" s="102"/>
+      <c r="BU3" s="103"/>
+      <c r="BV3" s="101">
         <f t="shared" ref="BV3" si="8">_xlfn.ISOWEEKNUM(BV4)</f>
         <v>17</v>
       </c>
-      <c r="BW3" s="99"/>
-      <c r="BX3" s="99"/>
-      <c r="BY3" s="99"/>
-      <c r="BZ3" s="99"/>
-      <c r="CA3" s="99"/>
-      <c r="CB3" s="100"/>
-      <c r="CC3" s="98">
+      <c r="BW3" s="102"/>
+      <c r="BX3" s="102"/>
+      <c r="BY3" s="102"/>
+      <c r="BZ3" s="102"/>
+      <c r="CA3" s="102"/>
+      <c r="CB3" s="103"/>
+      <c r="CC3" s="101">
         <f t="shared" ref="CC3" si="9">_xlfn.ISOWEEKNUM(CC4)</f>
         <v>18</v>
       </c>
-      <c r="CD3" s="99"/>
-      <c r="CE3" s="99"/>
-      <c r="CF3" s="99"/>
-      <c r="CG3" s="99"/>
-      <c r="CH3" s="99"/>
-      <c r="CI3" s="100"/>
-      <c r="CJ3" s="98">
+      <c r="CD3" s="102"/>
+      <c r="CE3" s="102"/>
+      <c r="CF3" s="102"/>
+      <c r="CG3" s="102"/>
+      <c r="CH3" s="102"/>
+      <c r="CI3" s="103"/>
+      <c r="CJ3" s="101">
         <f t="shared" ref="CJ3" si="10">_xlfn.ISOWEEKNUM(CJ4)</f>
         <v>19</v>
       </c>
-      <c r="CK3" s="99"/>
-      <c r="CL3" s="99"/>
-      <c r="CM3" s="99"/>
-      <c r="CN3" s="99"/>
-      <c r="CO3" s="99"/>
-      <c r="CP3" s="100"/>
-      <c r="CQ3" s="98">
+      <c r="CK3" s="102"/>
+      <c r="CL3" s="102"/>
+      <c r="CM3" s="102"/>
+      <c r="CN3" s="102"/>
+      <c r="CO3" s="102"/>
+      <c r="CP3" s="103"/>
+      <c r="CQ3" s="101">
         <f t="shared" ref="CQ3" si="11">_xlfn.ISOWEEKNUM(CQ4)</f>
         <v>20</v>
       </c>
-      <c r="CR3" s="99"/>
-      <c r="CS3" s="99"/>
-      <c r="CT3" s="99"/>
-      <c r="CU3" s="99"/>
-      <c r="CV3" s="99"/>
-      <c r="CW3" s="100"/>
-      <c r="CX3" s="98">
+      <c r="CR3" s="102"/>
+      <c r="CS3" s="102"/>
+      <c r="CT3" s="102"/>
+      <c r="CU3" s="102"/>
+      <c r="CV3" s="102"/>
+      <c r="CW3" s="103"/>
+      <c r="CX3" s="101">
         <f t="shared" ref="CX3" si="12">_xlfn.ISOWEEKNUM(CX4)</f>
         <v>21</v>
       </c>
-      <c r="CY3" s="99"/>
-      <c r="CZ3" s="99"/>
-      <c r="DA3" s="99"/>
-      <c r="DB3" s="99"/>
-      <c r="DC3" s="99"/>
-      <c r="DD3" s="100"/>
-      <c r="DE3" s="98">
+      <c r="CY3" s="102"/>
+      <c r="CZ3" s="102"/>
+      <c r="DA3" s="102"/>
+      <c r="DB3" s="102"/>
+      <c r="DC3" s="102"/>
+      <c r="DD3" s="103"/>
+      <c r="DE3" s="101">
         <f t="shared" ref="DE3" si="13">_xlfn.ISOWEEKNUM(DE4)</f>
         <v>22</v>
       </c>
-      <c r="DF3" s="99"/>
-      <c r="DG3" s="99"/>
-      <c r="DH3" s="99"/>
-      <c r="DI3" s="99"/>
-      <c r="DJ3" s="99"/>
-      <c r="DK3" s="100"/>
-      <c r="DL3" s="98">
+      <c r="DF3" s="102"/>
+      <c r="DG3" s="102"/>
+      <c r="DH3" s="102"/>
+      <c r="DI3" s="102"/>
+      <c r="DJ3" s="102"/>
+      <c r="DK3" s="103"/>
+      <c r="DL3" s="101">
         <f t="shared" ref="DL3" si="14">_xlfn.ISOWEEKNUM(DL4)</f>
         <v>23</v>
       </c>
-      <c r="DM3" s="99"/>
-      <c r="DN3" s="99"/>
-      <c r="DO3" s="99"/>
-      <c r="DP3" s="99"/>
-      <c r="DQ3" s="99"/>
-      <c r="DR3" s="100"/>
-      <c r="DS3" s="98">
+      <c r="DM3" s="102"/>
+      <c r="DN3" s="102"/>
+      <c r="DO3" s="102"/>
+      <c r="DP3" s="102"/>
+      <c r="DQ3" s="102"/>
+      <c r="DR3" s="103"/>
+      <c r="DS3" s="101">
         <f t="shared" ref="DS3" si="15">_xlfn.ISOWEEKNUM(DS4)</f>
         <v>24</v>
       </c>
-      <c r="DT3" s="99"/>
-      <c r="DU3" s="99"/>
-      <c r="DV3" s="99"/>
-      <c r="DW3" s="99"/>
-      <c r="DX3" s="99"/>
-      <c r="DY3" s="100"/>
-      <c r="DZ3" s="98">
+      <c r="DT3" s="102"/>
+      <c r="DU3" s="102"/>
+      <c r="DV3" s="102"/>
+      <c r="DW3" s="102"/>
+      <c r="DX3" s="102"/>
+      <c r="DY3" s="103"/>
+      <c r="DZ3" s="101">
         <f t="shared" ref="DZ3:FI3" si="16">_xlfn.ISOWEEKNUM(DZ4)</f>
         <v>25</v>
       </c>
-      <c r="EA3" s="99"/>
-      <c r="EB3" s="99"/>
-      <c r="EC3" s="99"/>
-      <c r="ED3" s="99"/>
-      <c r="EE3" s="99"/>
-      <c r="EF3" s="100"/>
-      <c r="EG3" s="98">
+      <c r="EA3" s="102"/>
+      <c r="EB3" s="102"/>
+      <c r="EC3" s="102"/>
+      <c r="ED3" s="102"/>
+      <c r="EE3" s="102"/>
+      <c r="EF3" s="103"/>
+      <c r="EG3" s="101">
         <f t="shared" si="16"/>
         <v>26</v>
       </c>
-      <c r="EH3" s="99"/>
-      <c r="EI3" s="99"/>
-      <c r="EJ3" s="99"/>
-      <c r="EK3" s="99"/>
-      <c r="EL3" s="99"/>
-      <c r="EM3" s="100"/>
-      <c r="EN3" s="98">
+      <c r="EH3" s="102"/>
+      <c r="EI3" s="102"/>
+      <c r="EJ3" s="102"/>
+      <c r="EK3" s="102"/>
+      <c r="EL3" s="102"/>
+      <c r="EM3" s="103"/>
+      <c r="EN3" s="101">
         <f t="shared" si="16"/>
         <v>27</v>
       </c>
-      <c r="EO3" s="99"/>
-      <c r="EP3" s="99"/>
-      <c r="EQ3" s="99"/>
-      <c r="ER3" s="99"/>
-      <c r="ES3" s="99"/>
-      <c r="ET3" s="100"/>
-      <c r="EU3" s="98">
+      <c r="EO3" s="102"/>
+      <c r="EP3" s="102"/>
+      <c r="EQ3" s="102"/>
+      <c r="ER3" s="102"/>
+      <c r="ES3" s="102"/>
+      <c r="ET3" s="103"/>
+      <c r="EU3" s="101">
         <f t="shared" si="16"/>
         <v>28</v>
       </c>
-      <c r="EV3" s="99"/>
-      <c r="EW3" s="99"/>
-      <c r="EX3" s="99"/>
-      <c r="EY3" s="99"/>
-      <c r="EZ3" s="99"/>
-      <c r="FA3" s="100"/>
-      <c r="FB3" s="98">
+      <c r="EV3" s="102"/>
+      <c r="EW3" s="102"/>
+      <c r="EX3" s="102"/>
+      <c r="EY3" s="102"/>
+      <c r="EZ3" s="102"/>
+      <c r="FA3" s="103"/>
+      <c r="FB3" s="101">
         <f t="shared" si="16"/>
         <v>29</v>
       </c>
-      <c r="FC3" s="99"/>
-      <c r="FD3" s="99"/>
-      <c r="FE3" s="99"/>
-      <c r="FF3" s="99"/>
-      <c r="FG3" s="99"/>
-      <c r="FH3" s="100"/>
-      <c r="FI3" s="98">
+      <c r="FC3" s="102"/>
+      <c r="FD3" s="102"/>
+      <c r="FE3" s="102"/>
+      <c r="FF3" s="102"/>
+      <c r="FG3" s="102"/>
+      <c r="FH3" s="103"/>
+      <c r="FI3" s="101">
         <f t="shared" si="16"/>
         <v>30</v>
       </c>
-      <c r="FJ3" s="99"/>
-      <c r="FK3" s="99"/>
-      <c r="FL3" s="99"/>
-      <c r="FM3" s="99"/>
-      <c r="FN3" s="99"/>
-      <c r="FO3" s="100"/>
-      <c r="FP3" s="98">
+      <c r="FJ3" s="102"/>
+      <c r="FK3" s="102"/>
+      <c r="FL3" s="102"/>
+      <c r="FM3" s="102"/>
+      <c r="FN3" s="102"/>
+      <c r="FO3" s="103"/>
+      <c r="FP3" s="101">
         <f t="shared" ref="FP3:GY3" si="17">_xlfn.ISOWEEKNUM(FP4)</f>
         <v>31</v>
       </c>
-      <c r="FQ3" s="99"/>
-      <c r="FR3" s="99"/>
-      <c r="FS3" s="99"/>
-      <c r="FT3" s="99"/>
-      <c r="FU3" s="99"/>
-      <c r="FV3" s="100"/>
-      <c r="FW3" s="98">
+      <c r="FQ3" s="102"/>
+      <c r="FR3" s="102"/>
+      <c r="FS3" s="102"/>
+      <c r="FT3" s="102"/>
+      <c r="FU3" s="102"/>
+      <c r="FV3" s="103"/>
+      <c r="FW3" s="101">
         <f t="shared" si="17"/>
         <v>32</v>
       </c>
-      <c r="FX3" s="99"/>
-      <c r="FY3" s="99"/>
-      <c r="FZ3" s="99"/>
-      <c r="GA3" s="99"/>
-      <c r="GB3" s="99"/>
-      <c r="GC3" s="100"/>
-      <c r="GD3" s="98">
+      <c r="FX3" s="102"/>
+      <c r="FY3" s="102"/>
+      <c r="FZ3" s="102"/>
+      <c r="GA3" s="102"/>
+      <c r="GB3" s="102"/>
+      <c r="GC3" s="103"/>
+      <c r="GD3" s="101">
         <f t="shared" si="17"/>
         <v>33</v>
       </c>
-      <c r="GE3" s="99"/>
-      <c r="GF3" s="99"/>
-      <c r="GG3" s="99"/>
-      <c r="GH3" s="99"/>
-      <c r="GI3" s="99"/>
-      <c r="GJ3" s="100"/>
-      <c r="GK3" s="98">
+      <c r="GE3" s="102"/>
+      <c r="GF3" s="102"/>
+      <c r="GG3" s="102"/>
+      <c r="GH3" s="102"/>
+      <c r="GI3" s="102"/>
+      <c r="GJ3" s="103"/>
+      <c r="GK3" s="101">
         <f t="shared" si="17"/>
         <v>34</v>
       </c>
-      <c r="GL3" s="99"/>
-      <c r="GM3" s="99"/>
-      <c r="GN3" s="99"/>
-      <c r="GO3" s="99"/>
-      <c r="GP3" s="99"/>
-      <c r="GQ3" s="100"/>
-      <c r="GR3" s="98">
+      <c r="GL3" s="102"/>
+      <c r="GM3" s="102"/>
+      <c r="GN3" s="102"/>
+      <c r="GO3" s="102"/>
+      <c r="GP3" s="102"/>
+      <c r="GQ3" s="103"/>
+      <c r="GR3" s="101">
         <f t="shared" si="17"/>
         <v>35</v>
       </c>
-      <c r="GS3" s="99"/>
-      <c r="GT3" s="99"/>
-      <c r="GU3" s="99"/>
-      <c r="GV3" s="99"/>
-      <c r="GW3" s="99"/>
-      <c r="GX3" s="100"/>
-      <c r="GY3" s="98">
+      <c r="GS3" s="102"/>
+      <c r="GT3" s="102"/>
+      <c r="GU3" s="102"/>
+      <c r="GV3" s="102"/>
+      <c r="GW3" s="102"/>
+      <c r="GX3" s="103"/>
+      <c r="GY3" s="101">
         <f t="shared" si="17"/>
         <v>36</v>
       </c>
-      <c r="GZ3" s="99"/>
-      <c r="HA3" s="99"/>
-      <c r="HB3" s="99"/>
-      <c r="HC3" s="99"/>
-      <c r="HD3" s="99"/>
-      <c r="HE3" s="100"/>
+      <c r="GZ3" s="102"/>
+      <c r="HA3" s="102"/>
+      <c r="HB3" s="102"/>
+      <c r="HC3" s="102"/>
+      <c r="HD3" s="102"/>
+      <c r="HE3" s="103"/>
     </row>
     <row r="4" spans="1:213" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38"/>
@@ -2452,296 +2452,296 @@
         <v>8</v>
       </c>
       <c r="E4" s="50"/>
-      <c r="K4" s="103">
+      <c r="K4" s="106">
         <f>K5</f>
         <v>45705</v>
       </c>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="104"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="106">
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="108"/>
+      <c r="R4" s="98">
         <f>R5</f>
         <v>45712</v>
       </c>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="107"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="108"/>
-      <c r="Y4" s="106">
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="99"/>
+      <c r="V4" s="99"/>
+      <c r="W4" s="99"/>
+      <c r="X4" s="100"/>
+      <c r="Y4" s="98">
         <f>Y5</f>
         <v>45719</v>
       </c>
-      <c r="Z4" s="107"/>
-      <c r="AA4" s="107"/>
-      <c r="AB4" s="107"/>
-      <c r="AC4" s="107"/>
-      <c r="AD4" s="107"/>
-      <c r="AE4" s="108"/>
-      <c r="AF4" s="106">
+      <c r="Z4" s="99"/>
+      <c r="AA4" s="99"/>
+      <c r="AB4" s="99"/>
+      <c r="AC4" s="99"/>
+      <c r="AD4" s="99"/>
+      <c r="AE4" s="100"/>
+      <c r="AF4" s="98">
         <f>AF5</f>
         <v>45726</v>
       </c>
-      <c r="AG4" s="107"/>
-      <c r="AH4" s="107"/>
-      <c r="AI4" s="107"/>
-      <c r="AJ4" s="107"/>
-      <c r="AK4" s="107"/>
-      <c r="AL4" s="108"/>
-      <c r="AM4" s="106">
+      <c r="AG4" s="99"/>
+      <c r="AH4" s="99"/>
+      <c r="AI4" s="99"/>
+      <c r="AJ4" s="99"/>
+      <c r="AK4" s="99"/>
+      <c r="AL4" s="100"/>
+      <c r="AM4" s="98">
         <f>AM5</f>
         <v>45733</v>
       </c>
-      <c r="AN4" s="107"/>
-      <c r="AO4" s="107"/>
-      <c r="AP4" s="107"/>
-      <c r="AQ4" s="107"/>
-      <c r="AR4" s="107"/>
-      <c r="AS4" s="108"/>
-      <c r="AT4" s="106">
+      <c r="AN4" s="99"/>
+      <c r="AO4" s="99"/>
+      <c r="AP4" s="99"/>
+      <c r="AQ4" s="99"/>
+      <c r="AR4" s="99"/>
+      <c r="AS4" s="100"/>
+      <c r="AT4" s="98">
         <f>AT5</f>
         <v>45740</v>
       </c>
-      <c r="AU4" s="107"/>
-      <c r="AV4" s="107"/>
-      <c r="AW4" s="107"/>
-      <c r="AX4" s="107"/>
-      <c r="AY4" s="107"/>
-      <c r="AZ4" s="108"/>
-      <c r="BA4" s="106">
+      <c r="AU4" s="99"/>
+      <c r="AV4" s="99"/>
+      <c r="AW4" s="99"/>
+      <c r="AX4" s="99"/>
+      <c r="AY4" s="99"/>
+      <c r="AZ4" s="100"/>
+      <c r="BA4" s="98">
         <f>BA5</f>
         <v>45747</v>
       </c>
-      <c r="BB4" s="107"/>
-      <c r="BC4" s="107"/>
-      <c r="BD4" s="107"/>
-      <c r="BE4" s="107"/>
-      <c r="BF4" s="107"/>
-      <c r="BG4" s="108"/>
-      <c r="BH4" s="106">
+      <c r="BB4" s="99"/>
+      <c r="BC4" s="99"/>
+      <c r="BD4" s="99"/>
+      <c r="BE4" s="99"/>
+      <c r="BF4" s="99"/>
+      <c r="BG4" s="100"/>
+      <c r="BH4" s="98">
         <f>BH5</f>
         <v>45754</v>
       </c>
-      <c r="BI4" s="107"/>
-      <c r="BJ4" s="107"/>
-      <c r="BK4" s="107"/>
-      <c r="BL4" s="107"/>
-      <c r="BM4" s="107"/>
-      <c r="BN4" s="108"/>
-      <c r="BO4" s="106">
+      <c r="BI4" s="99"/>
+      <c r="BJ4" s="99"/>
+      <c r="BK4" s="99"/>
+      <c r="BL4" s="99"/>
+      <c r="BM4" s="99"/>
+      <c r="BN4" s="100"/>
+      <c r="BO4" s="98">
         <f>BO5</f>
         <v>45761</v>
       </c>
-      <c r="BP4" s="107"/>
-      <c r="BQ4" s="107"/>
-      <c r="BR4" s="107"/>
-      <c r="BS4" s="107"/>
-      <c r="BT4" s="107"/>
-      <c r="BU4" s="108"/>
-      <c r="BV4" s="106">
+      <c r="BP4" s="99"/>
+      <c r="BQ4" s="99"/>
+      <c r="BR4" s="99"/>
+      <c r="BS4" s="99"/>
+      <c r="BT4" s="99"/>
+      <c r="BU4" s="100"/>
+      <c r="BV4" s="98">
         <f t="shared" ref="BV4" si="18">BV5</f>
         <v>45768</v>
       </c>
-      <c r="BW4" s="107"/>
-      <c r="BX4" s="107"/>
-      <c r="BY4" s="107"/>
-      <c r="BZ4" s="107"/>
-      <c r="CA4" s="107"/>
-      <c r="CB4" s="108"/>
-      <c r="CC4" s="106">
+      <c r="BW4" s="99"/>
+      <c r="BX4" s="99"/>
+      <c r="BY4" s="99"/>
+      <c r="BZ4" s="99"/>
+      <c r="CA4" s="99"/>
+      <c r="CB4" s="100"/>
+      <c r="CC4" s="98">
         <f t="shared" ref="CC4" si="19">CC5</f>
         <v>45775</v>
       </c>
-      <c r="CD4" s="107"/>
-      <c r="CE4" s="107"/>
-      <c r="CF4" s="107"/>
-      <c r="CG4" s="107"/>
-      <c r="CH4" s="107"/>
-      <c r="CI4" s="108"/>
-      <c r="CJ4" s="106">
+      <c r="CD4" s="99"/>
+      <c r="CE4" s="99"/>
+      <c r="CF4" s="99"/>
+      <c r="CG4" s="99"/>
+      <c r="CH4" s="99"/>
+      <c r="CI4" s="100"/>
+      <c r="CJ4" s="98">
         <f t="shared" ref="CJ4" si="20">CJ5</f>
         <v>45782</v>
       </c>
-      <c r="CK4" s="107"/>
-      <c r="CL4" s="107"/>
-      <c r="CM4" s="107"/>
-      <c r="CN4" s="107"/>
-      <c r="CO4" s="107"/>
-      <c r="CP4" s="108"/>
-      <c r="CQ4" s="106">
+      <c r="CK4" s="99"/>
+      <c r="CL4" s="99"/>
+      <c r="CM4" s="99"/>
+      <c r="CN4" s="99"/>
+      <c r="CO4" s="99"/>
+      <c r="CP4" s="100"/>
+      <c r="CQ4" s="98">
         <f t="shared" ref="CQ4" si="21">CQ5</f>
         <v>45789</v>
       </c>
-      <c r="CR4" s="107"/>
-      <c r="CS4" s="107"/>
-      <c r="CT4" s="107"/>
-      <c r="CU4" s="107"/>
-      <c r="CV4" s="107"/>
-      <c r="CW4" s="108"/>
-      <c r="CX4" s="106">
+      <c r="CR4" s="99"/>
+      <c r="CS4" s="99"/>
+      <c r="CT4" s="99"/>
+      <c r="CU4" s="99"/>
+      <c r="CV4" s="99"/>
+      <c r="CW4" s="100"/>
+      <c r="CX4" s="98">
         <f t="shared" ref="CX4" si="22">CX5</f>
         <v>45796</v>
       </c>
-      <c r="CY4" s="107"/>
-      <c r="CZ4" s="107"/>
-      <c r="DA4" s="107"/>
-      <c r="DB4" s="107"/>
-      <c r="DC4" s="107"/>
-      <c r="DD4" s="108"/>
-      <c r="DE4" s="106">
+      <c r="CY4" s="99"/>
+      <c r="CZ4" s="99"/>
+      <c r="DA4" s="99"/>
+      <c r="DB4" s="99"/>
+      <c r="DC4" s="99"/>
+      <c r="DD4" s="100"/>
+      <c r="DE4" s="98">
         <f t="shared" ref="DE4" si="23">DE5</f>
         <v>45803</v>
       </c>
-      <c r="DF4" s="107"/>
-      <c r="DG4" s="107"/>
-      <c r="DH4" s="107"/>
-      <c r="DI4" s="107"/>
-      <c r="DJ4" s="107"/>
-      <c r="DK4" s="108"/>
-      <c r="DL4" s="106">
+      <c r="DF4" s="99"/>
+      <c r="DG4" s="99"/>
+      <c r="DH4" s="99"/>
+      <c r="DI4" s="99"/>
+      <c r="DJ4" s="99"/>
+      <c r="DK4" s="100"/>
+      <c r="DL4" s="98">
         <f t="shared" ref="DL4" si="24">DL5</f>
         <v>45810</v>
       </c>
-      <c r="DM4" s="107"/>
-      <c r="DN4" s="107"/>
-      <c r="DO4" s="107"/>
-      <c r="DP4" s="107"/>
-      <c r="DQ4" s="107"/>
-      <c r="DR4" s="108"/>
-      <c r="DS4" s="106">
+      <c r="DM4" s="99"/>
+      <c r="DN4" s="99"/>
+      <c r="DO4" s="99"/>
+      <c r="DP4" s="99"/>
+      <c r="DQ4" s="99"/>
+      <c r="DR4" s="100"/>
+      <c r="DS4" s="98">
         <f t="shared" ref="DS4" si="25">DS5</f>
         <v>45817</v>
       </c>
-      <c r="DT4" s="107"/>
-      <c r="DU4" s="107"/>
-      <c r="DV4" s="107"/>
-      <c r="DW4" s="107"/>
-      <c r="DX4" s="107"/>
-      <c r="DY4" s="108"/>
-      <c r="DZ4" s="106">
+      <c r="DT4" s="99"/>
+      <c r="DU4" s="99"/>
+      <c r="DV4" s="99"/>
+      <c r="DW4" s="99"/>
+      <c r="DX4" s="99"/>
+      <c r="DY4" s="100"/>
+      <c r="DZ4" s="98">
         <f t="shared" ref="DZ4:FI4" si="26">DZ5</f>
         <v>45824</v>
       </c>
-      <c r="EA4" s="107"/>
-      <c r="EB4" s="107"/>
-      <c r="EC4" s="107"/>
-      <c r="ED4" s="107"/>
-      <c r="EE4" s="107"/>
-      <c r="EF4" s="108"/>
-      <c r="EG4" s="106">
+      <c r="EA4" s="99"/>
+      <c r="EB4" s="99"/>
+      <c r="EC4" s="99"/>
+      <c r="ED4" s="99"/>
+      <c r="EE4" s="99"/>
+      <c r="EF4" s="100"/>
+      <c r="EG4" s="98">
         <f t="shared" si="26"/>
         <v>45831</v>
       </c>
-      <c r="EH4" s="107"/>
-      <c r="EI4" s="107"/>
-      <c r="EJ4" s="107"/>
-      <c r="EK4" s="107"/>
-      <c r="EL4" s="107"/>
-      <c r="EM4" s="108"/>
-      <c r="EN4" s="106">
+      <c r="EH4" s="99"/>
+      <c r="EI4" s="99"/>
+      <c r="EJ4" s="99"/>
+      <c r="EK4" s="99"/>
+      <c r="EL4" s="99"/>
+      <c r="EM4" s="100"/>
+      <c r="EN4" s="98">
         <f t="shared" si="26"/>
         <v>45838</v>
       </c>
-      <c r="EO4" s="107"/>
-      <c r="EP4" s="107"/>
-      <c r="EQ4" s="107"/>
-      <c r="ER4" s="107"/>
-      <c r="ES4" s="107"/>
-      <c r="ET4" s="108"/>
-      <c r="EU4" s="106">
+      <c r="EO4" s="99"/>
+      <c r="EP4" s="99"/>
+      <c r="EQ4" s="99"/>
+      <c r="ER4" s="99"/>
+      <c r="ES4" s="99"/>
+      <c r="ET4" s="100"/>
+      <c r="EU4" s="98">
         <f t="shared" si="26"/>
         <v>45845</v>
       </c>
-      <c r="EV4" s="107"/>
-      <c r="EW4" s="107"/>
-      <c r="EX4" s="107"/>
-      <c r="EY4" s="107"/>
-      <c r="EZ4" s="107"/>
-      <c r="FA4" s="108"/>
-      <c r="FB4" s="106">
+      <c r="EV4" s="99"/>
+      <c r="EW4" s="99"/>
+      <c r="EX4" s="99"/>
+      <c r="EY4" s="99"/>
+      <c r="EZ4" s="99"/>
+      <c r="FA4" s="100"/>
+      <c r="FB4" s="98">
         <f t="shared" si="26"/>
         <v>45852</v>
       </c>
-      <c r="FC4" s="107"/>
-      <c r="FD4" s="107"/>
-      <c r="FE4" s="107"/>
-      <c r="FF4" s="107"/>
-      <c r="FG4" s="107"/>
-      <c r="FH4" s="108"/>
-      <c r="FI4" s="106">
+      <c r="FC4" s="99"/>
+      <c r="FD4" s="99"/>
+      <c r="FE4" s="99"/>
+      <c r="FF4" s="99"/>
+      <c r="FG4" s="99"/>
+      <c r="FH4" s="100"/>
+      <c r="FI4" s="98">
         <f t="shared" si="26"/>
         <v>45859</v>
       </c>
-      <c r="FJ4" s="107"/>
-      <c r="FK4" s="107"/>
-      <c r="FL4" s="107"/>
-      <c r="FM4" s="107"/>
-      <c r="FN4" s="107"/>
-      <c r="FO4" s="108"/>
-      <c r="FP4" s="106">
+      <c r="FJ4" s="99"/>
+      <c r="FK4" s="99"/>
+      <c r="FL4" s="99"/>
+      <c r="FM4" s="99"/>
+      <c r="FN4" s="99"/>
+      <c r="FO4" s="100"/>
+      <c r="FP4" s="98">
         <f t="shared" ref="FP4:GY4" si="27">FP5</f>
         <v>45866</v>
       </c>
-      <c r="FQ4" s="107"/>
-      <c r="FR4" s="107"/>
-      <c r="FS4" s="107"/>
-      <c r="FT4" s="107"/>
-      <c r="FU4" s="107"/>
-      <c r="FV4" s="108"/>
-      <c r="FW4" s="106">
+      <c r="FQ4" s="99"/>
+      <c r="FR4" s="99"/>
+      <c r="FS4" s="99"/>
+      <c r="FT4" s="99"/>
+      <c r="FU4" s="99"/>
+      <c r="FV4" s="100"/>
+      <c r="FW4" s="98">
         <f t="shared" si="27"/>
         <v>45873</v>
       </c>
-      <c r="FX4" s="107"/>
-      <c r="FY4" s="107"/>
-      <c r="FZ4" s="107"/>
-      <c r="GA4" s="107"/>
-      <c r="GB4" s="107"/>
-      <c r="GC4" s="108"/>
-      <c r="GD4" s="106">
+      <c r="FX4" s="99"/>
+      <c r="FY4" s="99"/>
+      <c r="FZ4" s="99"/>
+      <c r="GA4" s="99"/>
+      <c r="GB4" s="99"/>
+      <c r="GC4" s="100"/>
+      <c r="GD4" s="98">
         <f t="shared" si="27"/>
         <v>45880</v>
       </c>
-      <c r="GE4" s="107"/>
-      <c r="GF4" s="107"/>
-      <c r="GG4" s="107"/>
-      <c r="GH4" s="107"/>
-      <c r="GI4" s="107"/>
-      <c r="GJ4" s="108"/>
-      <c r="GK4" s="106">
+      <c r="GE4" s="99"/>
+      <c r="GF4" s="99"/>
+      <c r="GG4" s="99"/>
+      <c r="GH4" s="99"/>
+      <c r="GI4" s="99"/>
+      <c r="GJ4" s="100"/>
+      <c r="GK4" s="98">
         <f t="shared" si="27"/>
         <v>45887</v>
       </c>
-      <c r="GL4" s="107"/>
-      <c r="GM4" s="107"/>
-      <c r="GN4" s="107"/>
-      <c r="GO4" s="107"/>
-      <c r="GP4" s="107"/>
-      <c r="GQ4" s="108"/>
-      <c r="GR4" s="106">
+      <c r="GL4" s="99"/>
+      <c r="GM4" s="99"/>
+      <c r="GN4" s="99"/>
+      <c r="GO4" s="99"/>
+      <c r="GP4" s="99"/>
+      <c r="GQ4" s="100"/>
+      <c r="GR4" s="98">
         <f t="shared" si="27"/>
         <v>45894</v>
       </c>
-      <c r="GS4" s="107"/>
-      <c r="GT4" s="107"/>
-      <c r="GU4" s="107"/>
-      <c r="GV4" s="107"/>
-      <c r="GW4" s="107"/>
-      <c r="GX4" s="108"/>
-      <c r="GY4" s="106">
+      <c r="GS4" s="99"/>
+      <c r="GT4" s="99"/>
+      <c r="GU4" s="99"/>
+      <c r="GV4" s="99"/>
+      <c r="GW4" s="99"/>
+      <c r="GX4" s="100"/>
+      <c r="GY4" s="98">
         <f t="shared" si="27"/>
         <v>45901</v>
       </c>
-      <c r="GZ4" s="107"/>
-      <c r="HA4" s="107"/>
-      <c r="HB4" s="107"/>
-      <c r="HC4" s="107"/>
-      <c r="HD4" s="107"/>
-      <c r="HE4" s="108"/>
+      <c r="GZ4" s="99"/>
+      <c r="HA4" s="99"/>
+      <c r="HB4" s="99"/>
+      <c r="HC4" s="99"/>
+      <c r="HD4" s="99"/>
+      <c r="HE4" s="100"/>
     </row>
     <row r="5" spans="1:213" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="C8" s="4">
         <f>AVERAGE(C9:C14)</f>
-        <v>0.80000000000000016</v>
+        <v>0.9916666666666667</v>
       </c>
       <c r="D8" s="5">
         <v>45708</v>
@@ -5321,7 +5321,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="11">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="D11" s="12">
         <v>45720</v>
@@ -5546,7 +5546,7 @@
         <v>44</v>
       </c>
       <c r="C12" s="8">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="D12" s="9">
         <v>45729</v>
@@ -5776,7 +5776,7 @@
         <v>29</v>
       </c>
       <c r="C13" s="8">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="D13" s="9">
         <v>45750</v>
@@ -6001,7 +6001,7 @@
         <v>43</v>
       </c>
       <c r="C14" s="8">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D14" s="9">
         <v>45751</v>
@@ -6236,7 +6236,7 @@
       </c>
       <c r="C15" s="14">
         <f>AVERAGE(C16:C23)</f>
-        <v>0</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="16"/>
@@ -6460,7 +6460,7 @@
         <v>40</v>
       </c>
       <c r="C16" s="18">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="D16" s="19">
         <v>45764</v>
@@ -6694,7 +6694,7 @@
         <v>31</v>
       </c>
       <c r="C17" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="22">
         <v>45763</v>
@@ -6925,7 +6925,7 @@
         <v>33</v>
       </c>
       <c r="C18" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="25">
         <v>45766</v>
@@ -7155,7 +7155,7 @@
         <v>32</v>
       </c>
       <c r="C19" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="22">
         <v>45821</v>
@@ -7389,7 +7389,7 @@
         <v>41</v>
       </c>
       <c r="C20" s="24">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D20" s="25">
         <v>45778</v>
@@ -9449,30 +9449,25 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="GK4:GQ4"/>
-    <mergeCell ref="GR4:GX4"/>
-    <mergeCell ref="GY4:HE4"/>
-    <mergeCell ref="GK3:GQ3"/>
-    <mergeCell ref="GR3:GX3"/>
-    <mergeCell ref="GY3:HE3"/>
-    <mergeCell ref="FP3:FV3"/>
-    <mergeCell ref="FW3:GC3"/>
-    <mergeCell ref="GD3:GJ3"/>
-    <mergeCell ref="FP4:FV4"/>
-    <mergeCell ref="FW4:GC4"/>
-    <mergeCell ref="GD4:GJ4"/>
-    <mergeCell ref="EU3:FA3"/>
-    <mergeCell ref="FB3:FH3"/>
-    <mergeCell ref="FI3:FO3"/>
-    <mergeCell ref="EN4:ET4"/>
-    <mergeCell ref="EU4:FA4"/>
-    <mergeCell ref="FB4:FH4"/>
-    <mergeCell ref="FI4:FO4"/>
-    <mergeCell ref="DZ3:EF3"/>
-    <mergeCell ref="EG3:EM3"/>
-    <mergeCell ref="DZ4:EF4"/>
-    <mergeCell ref="EG4:EM4"/>
-    <mergeCell ref="EN3:ET3"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BH4:BN4"/>
+    <mergeCell ref="AM3:AS3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="AF4:AL4"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="R3:X3"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AL3"/>
+    <mergeCell ref="BV3:CB3"/>
+    <mergeCell ref="CC3:CI3"/>
+    <mergeCell ref="CJ3:CP3"/>
+    <mergeCell ref="BA3:BG3"/>
+    <mergeCell ref="BH3:BN3"/>
     <mergeCell ref="AT3:AZ3"/>
     <mergeCell ref="DS3:DY3"/>
     <mergeCell ref="DS4:DY4"/>
@@ -9489,25 +9484,30 @@
     <mergeCell ref="CJ4:CP4"/>
     <mergeCell ref="CQ4:CW4"/>
     <mergeCell ref="BO3:BU3"/>
-    <mergeCell ref="BV3:CB3"/>
-    <mergeCell ref="CC3:CI3"/>
-    <mergeCell ref="CJ3:CP3"/>
-    <mergeCell ref="BA3:BG3"/>
-    <mergeCell ref="BH3:BN3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="AF4:AL4"/>
-    <mergeCell ref="K3:Q3"/>
-    <mergeCell ref="R3:X3"/>
-    <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AL3"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BH4:BN4"/>
-    <mergeCell ref="AM3:AS3"/>
+    <mergeCell ref="DZ3:EF3"/>
+    <mergeCell ref="EG3:EM3"/>
+    <mergeCell ref="DZ4:EF4"/>
+    <mergeCell ref="EG4:EM4"/>
+    <mergeCell ref="EN3:ET3"/>
+    <mergeCell ref="EU3:FA3"/>
+    <mergeCell ref="FB3:FH3"/>
+    <mergeCell ref="FI3:FO3"/>
+    <mergeCell ref="EN4:ET4"/>
+    <mergeCell ref="EU4:FA4"/>
+    <mergeCell ref="FB4:FH4"/>
+    <mergeCell ref="FI4:FO4"/>
+    <mergeCell ref="FP3:FV3"/>
+    <mergeCell ref="FW3:GC3"/>
+    <mergeCell ref="GD3:GJ3"/>
+    <mergeCell ref="FP4:FV4"/>
+    <mergeCell ref="FW4:GC4"/>
+    <mergeCell ref="GD4:GJ4"/>
+    <mergeCell ref="GK4:GQ4"/>
+    <mergeCell ref="GR4:GX4"/>
+    <mergeCell ref="GY4:HE4"/>
+    <mergeCell ref="GK3:GQ3"/>
+    <mergeCell ref="GR3:GX3"/>
+    <mergeCell ref="GY3:HE3"/>
   </mergeCells>
   <conditionalFormatting sqref="C7:C8 B24 C15:C16 C28 C20:C26 C10:C13">
     <cfRule type="dataBar" priority="38">
@@ -9735,6 +9735,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9822,6 +9823,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -10109,15 +10119,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
@@ -10138,6 +10139,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10156,12 +10165,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>